--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="97">
   <si>
     <t>Result Date</t>
   </si>
@@ -158,12 +158,166 @@
   </si>
   <si>
     <t>TestAutomation3427</t>
+  </si>
+  <si>
+    <t>TestAutomation30227U</t>
+  </si>
+  <si>
+    <t>A0789107</t>
+  </si>
+  <si>
+    <t>TestCartridge0227</t>
+  </si>
+  <si>
+    <t>TestAutomation40227U</t>
+  </si>
+  <si>
+    <t>A0789112</t>
+  </si>
+  <si>
+    <t>TestAutomation20227U</t>
+  </si>
+  <si>
+    <t>A0789106</t>
+  </si>
+  <si>
+    <t>A0789111</t>
+  </si>
+  <si>
+    <t>TestAutomation10227U</t>
+  </si>
+  <si>
+    <t>A0789101</t>
+  </si>
+  <si>
+    <t>A0789108</t>
+  </si>
+  <si>
+    <t>A0789102</t>
+  </si>
+  <si>
+    <t>A0789103</t>
+  </si>
+  <si>
+    <t>A0789109</t>
+  </si>
+  <si>
+    <t>A0789104</t>
+  </si>
+  <si>
+    <t>A0789105</t>
+  </si>
+  <si>
+    <t>A0789110</t>
+  </si>
+  <si>
+    <t>TestAutomation14728U</t>
+  </si>
+  <si>
+    <t>A0789303</t>
+  </si>
+  <si>
+    <t>TestCartridge4728</t>
+  </si>
+  <si>
+    <t>A0789301</t>
+  </si>
+  <si>
+    <t>TestAutomation34728U</t>
+  </si>
+  <si>
+    <t>A0789307</t>
+  </si>
+  <si>
+    <t>TestAutomation44728U</t>
+  </si>
+  <si>
+    <t>A0789310</t>
+  </si>
+  <si>
+    <t>A0789308</t>
+  </si>
+  <si>
+    <t>A0789312</t>
+  </si>
+  <si>
+    <t>A0789302</t>
+  </si>
+  <si>
+    <t>TestAutomation24728U</t>
+  </si>
+  <si>
+    <t>A0789305</t>
+  </si>
+  <si>
+    <t>A0789309</t>
+  </si>
+  <si>
+    <t>A0789304</t>
+  </si>
+  <si>
+    <t>A0789311</t>
+  </si>
+  <si>
+    <t>A0789306</t>
+  </si>
+  <si>
+    <t>TestAutomation15813U</t>
+  </si>
+  <si>
+    <t>A0789802</t>
+  </si>
+  <si>
+    <t>TestCartridge5813</t>
+  </si>
+  <si>
+    <t>TestAutomation35813U</t>
+  </si>
+  <si>
+    <t>A0789808</t>
+  </si>
+  <si>
+    <t>TestAutomation45813U</t>
+  </si>
+  <si>
+    <t>A0789812</t>
+  </si>
+  <si>
+    <t>TestAutomation25813U</t>
+  </si>
+  <si>
+    <t>A0789805</t>
+  </si>
+  <si>
+    <t>A0789806</t>
+  </si>
+  <si>
+    <t>A0789810</t>
+  </si>
+  <si>
+    <t>A0789809</t>
+  </si>
+  <si>
+    <t>A0789803</t>
+  </si>
+  <si>
+    <t>A0789811</t>
+  </si>
+  <si>
+    <t>A0789804</t>
+  </si>
+  <si>
+    <t>A0789807</t>
+  </si>
+  <si>
+    <t>A0789801</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -549,16 +703,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="10.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.09765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.69921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.69921875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="10.69921875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
@@ -637,12 +791,14 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
@@ -658,7 +814,9 @@
       <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="1"/>
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
       <c r="T2" t="s">
         <v>31</v>
       </c>
@@ -680,9 +838,11 @@
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
@@ -698,7 +858,9 @@
       <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="1"/>
+      <c r="R3" t="s">
+        <v>83</v>
+      </c>
       <c r="T3" t="s">
         <v>31</v>
       </c>
@@ -717,12 +879,14 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
       <c r="E4" t="s">
         <v>26</v>
       </c>
@@ -738,7 +902,9 @@
       <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="1"/>
+      <c r="R4" t="s">
+        <v>85</v>
+      </c>
       <c r="T4" t="s">
         <v>31</v>
       </c>
@@ -757,12 +923,14 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -778,7 +946,9 @@
       <c r="L5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" t="s">
+        <v>87</v>
+      </c>
       <c r="T5" t="s">
         <v>31</v>
       </c>
@@ -797,12 +967,14 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
@@ -818,7 +990,9 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="1"/>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
       <c r="T6" t="s">
         <v>31</v>
       </c>
@@ -837,12 +1011,14 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
@@ -858,7 +1034,9 @@
       <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="R7" s="1"/>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
       <c r="T7" t="s">
         <v>31</v>
       </c>
@@ -877,12 +1055,14 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
@@ -898,7 +1078,9 @@
       <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="1"/>
+      <c r="R8" t="s">
+        <v>83</v>
+      </c>
       <c r="T8" t="s">
         <v>31</v>
       </c>
@@ -917,12 +1099,14 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
@@ -938,7 +1122,9 @@
       <c r="L9" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="1"/>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
       <c r="T9" t="s">
         <v>31</v>
       </c>
@@ -957,12 +1143,14 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
       <c r="E10" t="s">
         <v>26</v>
       </c>
@@ -978,7 +1166,9 @@
       <c r="L10" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="1"/>
+      <c r="R10" t="s">
+        <v>85</v>
+      </c>
       <c r="T10" t="s">
         <v>31</v>
       </c>
@@ -997,12 +1187,14 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
@@ -1018,7 +1210,9 @@
       <c r="L11" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="1"/>
+      <c r="R11" t="s">
+        <v>87</v>
+      </c>
       <c r="T11" t="s">
         <v>31</v>
       </c>
@@ -1037,12 +1231,14 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
       <c r="E12" t="s">
         <v>26</v>
       </c>
@@ -1058,7 +1254,9 @@
       <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="R12" s="1"/>
+      <c r="R12" t="s">
+        <v>83</v>
+      </c>
       <c r="T12" t="s">
         <v>31</v>
       </c>
@@ -1077,12 +1275,14 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
@@ -1098,7 +1298,9 @@
       <c r="L13" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="1"/>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
       <c r="T13" t="s">
         <v>31</v>
       </c>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="261">
   <si>
     <t>Result Date</t>
   </si>
@@ -311,6 +311,498 @@
   </si>
   <si>
     <t>A0789801</t>
+  </si>
+  <si>
+    <t>TestAutomation23214U</t>
+  </si>
+  <si>
+    <t>A0790506</t>
+  </si>
+  <si>
+    <t>TestCartridge3214</t>
+  </si>
+  <si>
+    <t>A0790505</t>
+  </si>
+  <si>
+    <t>TestAutomation43214U</t>
+  </si>
+  <si>
+    <t>A0790510</t>
+  </si>
+  <si>
+    <t>TestAutomation33214U</t>
+  </si>
+  <si>
+    <t>A0790509</t>
+  </si>
+  <si>
+    <t>A0790504</t>
+  </si>
+  <si>
+    <t>TestAutomation13214U</t>
+  </si>
+  <si>
+    <t>A0790503</t>
+  </si>
+  <si>
+    <t>A0790512</t>
+  </si>
+  <si>
+    <t>A0790508</t>
+  </si>
+  <si>
+    <t>A0790511</t>
+  </si>
+  <si>
+    <t>A0790501</t>
+  </si>
+  <si>
+    <t>A0790502</t>
+  </si>
+  <si>
+    <t>A0790507</t>
+  </si>
+  <si>
+    <t>TestAutomation30434U</t>
+  </si>
+  <si>
+    <t>A0790709</t>
+  </si>
+  <si>
+    <t>TestCartridge0434</t>
+  </si>
+  <si>
+    <t>TestAutomation10434U</t>
+  </si>
+  <si>
+    <t>A0790703</t>
+  </si>
+  <si>
+    <t>TestAutomation40434U</t>
+  </si>
+  <si>
+    <t>A0790711</t>
+  </si>
+  <si>
+    <t>TestAutomation20434U</t>
+  </si>
+  <si>
+    <t>A0790704</t>
+  </si>
+  <si>
+    <t>A0790710</t>
+  </si>
+  <si>
+    <t>A0790707</t>
+  </si>
+  <si>
+    <t>A0790702</t>
+  </si>
+  <si>
+    <t>A0790712</t>
+  </si>
+  <si>
+    <t>A0790708</t>
+  </si>
+  <si>
+    <t>A0790705</t>
+  </si>
+  <si>
+    <t>A0790701</t>
+  </si>
+  <si>
+    <t>A0790706</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>A0791002</t>
+  </si>
+  <si>
+    <t>TestCartridge2349</t>
+  </si>
+  <si>
+    <t>A0791007</t>
+  </si>
+  <si>
+    <t>A0791001</t>
+  </si>
+  <si>
+    <t>A0791011</t>
+  </si>
+  <si>
+    <t>A0791008</t>
+  </si>
+  <si>
+    <t>A0791012</t>
+  </si>
+  <si>
+    <t>A0791005</t>
+  </si>
+  <si>
+    <t>A0791006</t>
+  </si>
+  <si>
+    <t>A0791010</t>
+  </si>
+  <si>
+    <t>A0791009</t>
+  </si>
+  <si>
+    <t>A0791003</t>
+  </si>
+  <si>
+    <t>A0791004</t>
+  </si>
+  <si>
+    <t>TestAutomation10620Updt</t>
+  </si>
+  <si>
+    <t>A0791101</t>
+  </si>
+  <si>
+    <t>TestCartridge0620</t>
+  </si>
+  <si>
+    <t>A0791102</t>
+  </si>
+  <si>
+    <t>TestAutomation20620Updt</t>
+  </si>
+  <si>
+    <t>A0791104</t>
+  </si>
+  <si>
+    <t>A0791105</t>
+  </si>
+  <si>
+    <t>A0791103</t>
+  </si>
+  <si>
+    <t>A0791106</t>
+  </si>
+  <si>
+    <t>TestAutomation40620Updt</t>
+  </si>
+  <si>
+    <t>A0791111</t>
+  </si>
+  <si>
+    <t>A0791110</t>
+  </si>
+  <si>
+    <t>TestAutomation30620Updt</t>
+  </si>
+  <si>
+    <t>A0791108</t>
+  </si>
+  <si>
+    <t>A0791107</t>
+  </si>
+  <si>
+    <t>A0791109</t>
+  </si>
+  <si>
+    <t>A0791112</t>
+  </si>
+  <si>
+    <t>TestAutomation24215Updt</t>
+  </si>
+  <si>
+    <t>A0791204</t>
+  </si>
+  <si>
+    <t>TestCartridge4215</t>
+  </si>
+  <si>
+    <t>TestAutomation44215Updt</t>
+  </si>
+  <si>
+    <t>A0791212</t>
+  </si>
+  <si>
+    <t>TestAutomation14215Updt</t>
+  </si>
+  <si>
+    <t>A0791203</t>
+  </si>
+  <si>
+    <t>A0791206</t>
+  </si>
+  <si>
+    <t>A0791201</t>
+  </si>
+  <si>
+    <t>TestAutomation34215Updt</t>
+  </si>
+  <si>
+    <t>A0791208</t>
+  </si>
+  <si>
+    <t>A0791207</t>
+  </si>
+  <si>
+    <t>A0791205</t>
+  </si>
+  <si>
+    <t>A0791211</t>
+  </si>
+  <si>
+    <t>A0791202</t>
+  </si>
+  <si>
+    <t>A0791210</t>
+  </si>
+  <si>
+    <t>A0791209</t>
+  </si>
+  <si>
+    <t>20210701-Salmonella-NA01Updt</t>
+  </si>
+  <si>
+    <t>A0781601</t>
+  </si>
+  <si>
+    <t>TestCartridge0334</t>
+  </si>
+  <si>
+    <t>A0781610</t>
+  </si>
+  <si>
+    <t>A0781611</t>
+  </si>
+  <si>
+    <t>A0781612</t>
+  </si>
+  <si>
+    <t>A0781602</t>
+  </si>
+  <si>
+    <t>A0781603</t>
+  </si>
+  <si>
+    <t>A0781604</t>
+  </si>
+  <si>
+    <t>A0781605</t>
+  </si>
+  <si>
+    <t>A0781606</t>
+  </si>
+  <si>
+    <t>A0781607</t>
+  </si>
+  <si>
+    <t>A0781608</t>
+  </si>
+  <si>
+    <t>A0781609</t>
+  </si>
+  <si>
+    <t>TestAutomation13900Updt</t>
+  </si>
+  <si>
+    <t>A0791401</t>
+  </si>
+  <si>
+    <t>TestCartridge3900</t>
+  </si>
+  <si>
+    <t>TestAutomation43900Updt</t>
+  </si>
+  <si>
+    <t>A0791410</t>
+  </si>
+  <si>
+    <t>A0791411</t>
+  </si>
+  <si>
+    <t>A0791412</t>
+  </si>
+  <si>
+    <t>A0791402</t>
+  </si>
+  <si>
+    <t>A0791403</t>
+  </si>
+  <si>
+    <t>TestAutomation23900Updt</t>
+  </si>
+  <si>
+    <t>A0791404</t>
+  </si>
+  <si>
+    <t>A0791405</t>
+  </si>
+  <si>
+    <t>A0791406</t>
+  </si>
+  <si>
+    <t>TestAutomation33900Updt</t>
+  </si>
+  <si>
+    <t>A0791407</t>
+  </si>
+  <si>
+    <t>A0791408</t>
+  </si>
+  <si>
+    <t>A0791409</t>
+  </si>
+  <si>
+    <t>TestAutomation10652Updt</t>
+  </si>
+  <si>
+    <t>A0791501</t>
+  </si>
+  <si>
+    <t>TestCartridge0652</t>
+  </si>
+  <si>
+    <t>TestAutomation40652Updt</t>
+  </si>
+  <si>
+    <t>A0791510</t>
+  </si>
+  <si>
+    <t>A0791511</t>
+  </si>
+  <si>
+    <t>A0791512</t>
+  </si>
+  <si>
+    <t>A0791502</t>
+  </si>
+  <si>
+    <t>A0791503</t>
+  </si>
+  <si>
+    <t>TestAutomation20652Updt</t>
+  </si>
+  <si>
+    <t>A0791504</t>
+  </si>
+  <si>
+    <t>A0791505</t>
+  </si>
+  <si>
+    <t>A0791506</t>
+  </si>
+  <si>
+    <t>TestAutomation30652Updt</t>
+  </si>
+  <si>
+    <t>A0791507</t>
+  </si>
+  <si>
+    <t>A0791508</t>
+  </si>
+  <si>
+    <t>A0791509</t>
+  </si>
+  <si>
+    <t>TestAutomation12801Updt</t>
+  </si>
+  <si>
+    <t>A0791703</t>
+  </si>
+  <si>
+    <t>TestCartridge2801</t>
+  </si>
+  <si>
+    <t>TestAutomation22801Updt</t>
+  </si>
+  <si>
+    <t>A0791704</t>
+  </si>
+  <si>
+    <t>A0791705</t>
+  </si>
+  <si>
+    <t>A0791706</t>
+  </si>
+  <si>
+    <t>TestAutomation32801Updt</t>
+  </si>
+  <si>
+    <t>A0791707</t>
+  </si>
+  <si>
+    <t>A0791701</t>
+  </si>
+  <si>
+    <t>TestAutomation42801Updt</t>
+  </si>
+  <si>
+    <t>A0791710</t>
+  </si>
+  <si>
+    <t>A0791711</t>
+  </si>
+  <si>
+    <t>A0791712</t>
+  </si>
+  <si>
+    <t>A0791702</t>
+  </si>
+  <si>
+    <t>A0791708</t>
+  </si>
+  <si>
+    <t>A0791709</t>
+  </si>
+  <si>
+    <t>TestAutomation11016Updt</t>
+  </si>
+  <si>
+    <t>A0792001</t>
+  </si>
+  <si>
+    <t>TestCartridge1016</t>
+  </si>
+  <si>
+    <t>TestAutomation41016Updt</t>
+  </si>
+  <si>
+    <t>A0792010</t>
+  </si>
+  <si>
+    <t>A0792011</t>
+  </si>
+  <si>
+    <t>A0792012</t>
+  </si>
+  <si>
+    <t>A0792002</t>
+  </si>
+  <si>
+    <t>A0792003</t>
+  </si>
+  <si>
+    <t>TestAutomation21016Updt</t>
+  </si>
+  <si>
+    <t>A0792004</t>
+  </si>
+  <si>
+    <t>A0792005</t>
+  </si>
+  <si>
+    <t>A0792006</t>
+  </si>
+  <si>
+    <t>TestAutomation31016Updt</t>
+  </si>
+  <si>
+    <t>A0792007</t>
+  </si>
+  <si>
+    <t>A0792008</t>
+  </si>
+  <si>
+    <t>A0792009</t>
   </si>
 </sst>
 </file>
@@ -791,13 +1283,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -815,7 +1307,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -835,13 +1327,13 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -859,7 +1351,7 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="T3" t="s">
         <v>31</v>
@@ -879,13 +1371,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -903,7 +1395,7 @@
         <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="T4" t="s">
         <v>31</v>
@@ -923,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -947,7 +1439,7 @@
         <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>247</v>
       </c>
       <c r="T5" t="s">
         <v>31</v>
@@ -967,13 +1459,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -991,7 +1483,7 @@
         <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="T6" t="s">
         <v>31</v>
@@ -1011,13 +1503,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -1035,7 +1527,7 @@
         <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="T7" t="s">
         <v>31</v>
@@ -1055,13 +1547,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1079,7 +1571,7 @@
         <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
@@ -1099,13 +1591,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1123,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="T9" t="s">
         <v>31</v>
@@ -1143,13 +1635,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>256</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1167,7 +1659,7 @@
         <v>29</v>
       </c>
       <c r="R10" t="s">
-        <v>85</v>
+        <v>253</v>
       </c>
       <c r="T10" t="s">
         <v>31</v>
@@ -1187,13 +1679,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -1211,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="T11" t="s">
         <v>31</v>
@@ -1231,13 +1723,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1255,7 +1747,7 @@
         <v>29</v>
       </c>
       <c r="R12" t="s">
-        <v>83</v>
+        <v>257</v>
       </c>
       <c r="T12" t="s">
         <v>31</v>
@@ -1275,13 +1767,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1299,7 +1791,7 @@
         <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="T13" t="s">
         <v>31</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -3,24 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964B389E-7A31-4C48-AA99-57053412BB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AD36122E-4D8E-4371-9DEF-E92371D5DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="92">
   <si>
     <t>Result Date</t>
   </si>
@@ -157,417 +153,114 @@
     <t>9</t>
   </si>
   <si>
-    <t>TestAutomation3427</t>
-  </si>
-  <si>
-    <t>TestAutomation30227U</t>
-  </si>
-  <si>
-    <t>A0789107</t>
-  </si>
-  <si>
-    <t>TestCartridge0227</t>
-  </si>
-  <si>
-    <t>TestAutomation40227U</t>
-  </si>
-  <si>
-    <t>A0789112</t>
-  </si>
-  <si>
-    <t>TestAutomation20227U</t>
-  </si>
-  <si>
-    <t>A0789106</t>
-  </si>
-  <si>
-    <t>A0789111</t>
-  </si>
-  <si>
-    <t>TestAutomation10227U</t>
-  </si>
-  <si>
-    <t>A0789101</t>
-  </si>
-  <si>
-    <t>A0789108</t>
-  </si>
-  <si>
-    <t>A0789102</t>
-  </si>
-  <si>
-    <t>A0789103</t>
-  </si>
-  <si>
-    <t>A0789109</t>
-  </si>
-  <si>
-    <t>A0789104</t>
-  </si>
-  <si>
-    <t>A0789105</t>
-  </si>
-  <si>
-    <t>A0789110</t>
-  </si>
-  <si>
-    <t>TestAutomation14728U</t>
-  </si>
-  <si>
-    <t>A0789303</t>
-  </si>
-  <si>
-    <t>TestCartridge4728</t>
-  </si>
-  <si>
-    <t>A0789301</t>
-  </si>
-  <si>
-    <t>TestAutomation34728U</t>
-  </si>
-  <si>
-    <t>A0789307</t>
-  </si>
-  <si>
-    <t>TestAutomation44728U</t>
-  </si>
-  <si>
-    <t>A0789310</t>
-  </si>
-  <si>
-    <t>A0789308</t>
-  </si>
-  <si>
-    <t>A0789312</t>
-  </si>
-  <si>
-    <t>A0789302</t>
-  </si>
-  <si>
-    <t>TestAutomation24728U</t>
-  </si>
-  <si>
-    <t>A0789305</t>
-  </si>
-  <si>
-    <t>A0789309</t>
-  </si>
-  <si>
-    <t>A0789304</t>
-  </si>
-  <si>
-    <t>A0789311</t>
-  </si>
-  <si>
-    <t>A0789306</t>
-  </si>
-  <si>
-    <t>TestAutomation15813U</t>
-  </si>
-  <si>
-    <t>A0789802</t>
-  </si>
-  <si>
-    <t>TestCartridge5813</t>
-  </si>
-  <si>
-    <t>TestAutomation35813U</t>
-  </si>
-  <si>
-    <t>A0789808</t>
-  </si>
-  <si>
-    <t>TestAutomation45813U</t>
-  </si>
-  <si>
-    <t>A0789812</t>
-  </si>
-  <si>
-    <t>TestAutomation25813U</t>
-  </si>
-  <si>
-    <t>A0789805</t>
-  </si>
-  <si>
-    <t>A0789806</t>
-  </si>
-  <si>
-    <t>A0789810</t>
-  </si>
-  <si>
-    <t>A0789809</t>
-  </si>
-  <si>
-    <t>A0789803</t>
-  </si>
-  <si>
-    <t>A0789811</t>
-  </si>
-  <si>
-    <t>A0789804</t>
-  </si>
-  <si>
-    <t>A0789807</t>
-  </si>
-  <si>
-    <t>A0789801</t>
-  </si>
-  <si>
-    <t>TestAutomation23214U</t>
-  </si>
-  <si>
-    <t>A0790506</t>
-  </si>
-  <si>
-    <t>TestCartridge3214</t>
-  </si>
-  <si>
-    <t>A0790505</t>
-  </si>
-  <si>
-    <t>TestAutomation43214U</t>
-  </si>
-  <si>
-    <t>A0790510</t>
-  </si>
-  <si>
-    <t>TestAutomation33214U</t>
-  </si>
-  <si>
-    <t>A0790509</t>
-  </si>
-  <si>
-    <t>A0790504</t>
-  </si>
-  <si>
-    <t>TestAutomation13214U</t>
-  </si>
-  <si>
-    <t>A0790503</t>
-  </si>
-  <si>
-    <t>A0790512</t>
-  </si>
-  <si>
-    <t>A0790508</t>
-  </si>
-  <si>
-    <t>A0790511</t>
-  </si>
-  <si>
-    <t>A0790501</t>
-  </si>
-  <si>
-    <t>A0790502</t>
-  </si>
-  <si>
-    <t>A0790507</t>
-  </si>
-  <si>
-    <t>TestAutomation30434U</t>
-  </si>
-  <si>
-    <t>A0790709</t>
-  </si>
-  <si>
-    <t>TestCartridge0434</t>
-  </si>
-  <si>
-    <t>TestAutomation10434U</t>
-  </si>
-  <si>
-    <t>A0790703</t>
-  </si>
-  <si>
-    <t>TestAutomation40434U</t>
-  </si>
-  <si>
-    <t>A0790711</t>
-  </si>
-  <si>
-    <t>TestAutomation20434U</t>
-  </si>
-  <si>
-    <t>A0790704</t>
-  </si>
-  <si>
-    <t>A0790710</t>
-  </si>
-  <si>
-    <t>A0790707</t>
-  </si>
-  <si>
-    <t>A0790702</t>
-  </si>
-  <si>
-    <t>A0790712</t>
-  </si>
-  <si>
-    <t>A0790708</t>
-  </si>
-  <si>
-    <t>A0790705</t>
-  </si>
-  <si>
-    <t>A0790701</t>
-  </si>
-  <si>
-    <t>A0790706</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>A0791002</t>
-  </si>
-  <si>
-    <t>TestCartridge2349</t>
-  </si>
-  <si>
-    <t>A0791007</t>
-  </si>
-  <si>
-    <t>A0791001</t>
-  </si>
-  <si>
-    <t>A0791011</t>
-  </si>
-  <si>
-    <t>A0791008</t>
-  </si>
-  <si>
-    <t>A0791012</t>
-  </si>
-  <si>
-    <t>A0791005</t>
-  </si>
-  <si>
-    <t>A0791006</t>
-  </si>
-  <si>
-    <t>A0791010</t>
-  </si>
-  <si>
-    <t>A0791009</t>
-  </si>
-  <si>
-    <t>A0791003</t>
-  </si>
-  <si>
-    <t>A0791004</t>
-  </si>
-  <si>
-    <t>TestAutomation10620Updt</t>
-  </si>
-  <si>
-    <t>A0791101</t>
-  </si>
-  <si>
-    <t>TestCartridge0620</t>
-  </si>
-  <si>
-    <t>A0791102</t>
-  </si>
-  <si>
-    <t>TestAutomation20620Updt</t>
-  </si>
-  <si>
-    <t>A0791104</t>
-  </si>
-  <si>
-    <t>A0791105</t>
-  </si>
-  <si>
-    <t>A0791103</t>
-  </si>
-  <si>
-    <t>A0791106</t>
-  </si>
-  <si>
-    <t>TestAutomation40620Updt</t>
-  </si>
-  <si>
-    <t>A0791111</t>
-  </si>
-  <si>
-    <t>A0791110</t>
-  </si>
-  <si>
-    <t>TestAutomation30620Updt</t>
-  </si>
-  <si>
-    <t>A0791108</t>
-  </si>
-  <si>
-    <t>A0791107</t>
-  </si>
-  <si>
-    <t>A0791109</t>
-  </si>
-  <si>
-    <t>A0791112</t>
-  </si>
-  <si>
-    <t>TestAutomation24215Updt</t>
-  </si>
-  <si>
-    <t>A0791204</t>
-  </si>
-  <si>
-    <t>TestCartridge4215</t>
-  </si>
-  <si>
-    <t>TestAutomation44215Updt</t>
-  </si>
-  <si>
-    <t>A0791212</t>
-  </si>
-  <si>
-    <t>TestAutomation14215Updt</t>
-  </si>
-  <si>
-    <t>A0791203</t>
-  </si>
-  <si>
-    <t>A0791206</t>
-  </si>
-  <si>
-    <t>A0791201</t>
-  </si>
-  <si>
-    <t>TestAutomation34215Updt</t>
-  </si>
-  <si>
-    <t>A0791208</t>
-  </si>
-  <si>
-    <t>A0791207</t>
-  </si>
-  <si>
-    <t>A0791205</t>
-  </si>
-  <si>
-    <t>A0791211</t>
-  </si>
-  <si>
-    <t>A0791202</t>
-  </si>
-  <si>
-    <t>A0791210</t>
-  </si>
-  <si>
-    <t>A0791209</t>
-  </si>
-  <si>
-    <t>20210701-Salmonella-NA01Updt</t>
+    <t>TestAutomation12959Updt</t>
+  </si>
+  <si>
+    <t>A0792201</t>
+  </si>
+  <si>
+    <t>TestCartridge2959</t>
+  </si>
+  <si>
+    <t>TestAutomation42959Updt</t>
+  </si>
+  <si>
+    <t>A0792210</t>
+  </si>
+  <si>
+    <t>A0792211</t>
+  </si>
+  <si>
+    <t>A0792212</t>
+  </si>
+  <si>
+    <t>A0792202</t>
+  </si>
+  <si>
+    <t>A0792203</t>
+  </si>
+  <si>
+    <t>TestAutomation22959Updt</t>
+  </si>
+  <si>
+    <t>A0792204</t>
+  </si>
+  <si>
+    <t>A0792205</t>
+  </si>
+  <si>
+    <t>A0792206</t>
+  </si>
+  <si>
+    <t>TestAutomation32959Updt</t>
+  </si>
+  <si>
+    <t>A0792207</t>
+  </si>
+  <si>
+    <t>A0792208</t>
+  </si>
+  <si>
+    <t>A0792209</t>
+  </si>
+  <si>
+    <t>TestAutomation25221Updt</t>
+  </si>
+  <si>
+    <t>A0793404</t>
+  </si>
+  <si>
+    <t>TestCartridge5221</t>
+  </si>
+  <si>
+    <t>TestAutomation15221Updt</t>
+  </si>
+  <si>
+    <t>A0793402</t>
+  </si>
+  <si>
+    <t>TestAutomation35221Updt</t>
+  </si>
+  <si>
+    <t>A0793407</t>
+  </si>
+  <si>
+    <t>A0793406</t>
+  </si>
+  <si>
+    <t>TestAutomation45221Updt</t>
+  </si>
+  <si>
+    <t>A0793410</t>
+  </si>
+  <si>
+    <t>A0793409</t>
+  </si>
+  <si>
+    <t>A0793403</t>
+  </si>
+  <si>
+    <t>A0793408</t>
+  </si>
+  <si>
+    <t>A0793405</t>
+  </si>
+  <si>
+    <t>A0793401</t>
+  </si>
+  <si>
+    <t>A0793412</t>
+  </si>
+  <si>
+    <t>A0793411</t>
+  </si>
+  <si>
+    <t>20210701-Salmonella-NA01UpdtUpdt</t>
   </si>
   <si>
     <t>A0781601</t>
   </si>
   <si>
-    <t>TestCartridge0334</t>
-  </si>
-  <si>
     <t>A0781610</t>
   </si>
   <si>
@@ -599,210 +292,6 @@
   </si>
   <si>
     <t>A0781609</t>
-  </si>
-  <si>
-    <t>TestAutomation13900Updt</t>
-  </si>
-  <si>
-    <t>A0791401</t>
-  </si>
-  <si>
-    <t>TestCartridge3900</t>
-  </si>
-  <si>
-    <t>TestAutomation43900Updt</t>
-  </si>
-  <si>
-    <t>A0791410</t>
-  </si>
-  <si>
-    <t>A0791411</t>
-  </si>
-  <si>
-    <t>A0791412</t>
-  </si>
-  <si>
-    <t>A0791402</t>
-  </si>
-  <si>
-    <t>A0791403</t>
-  </si>
-  <si>
-    <t>TestAutomation23900Updt</t>
-  </si>
-  <si>
-    <t>A0791404</t>
-  </si>
-  <si>
-    <t>A0791405</t>
-  </si>
-  <si>
-    <t>A0791406</t>
-  </si>
-  <si>
-    <t>TestAutomation33900Updt</t>
-  </si>
-  <si>
-    <t>A0791407</t>
-  </si>
-  <si>
-    <t>A0791408</t>
-  </si>
-  <si>
-    <t>A0791409</t>
-  </si>
-  <si>
-    <t>TestAutomation10652Updt</t>
-  </si>
-  <si>
-    <t>A0791501</t>
-  </si>
-  <si>
-    <t>TestCartridge0652</t>
-  </si>
-  <si>
-    <t>TestAutomation40652Updt</t>
-  </si>
-  <si>
-    <t>A0791510</t>
-  </si>
-  <si>
-    <t>A0791511</t>
-  </si>
-  <si>
-    <t>A0791512</t>
-  </si>
-  <si>
-    <t>A0791502</t>
-  </si>
-  <si>
-    <t>A0791503</t>
-  </si>
-  <si>
-    <t>TestAutomation20652Updt</t>
-  </si>
-  <si>
-    <t>A0791504</t>
-  </si>
-  <si>
-    <t>A0791505</t>
-  </si>
-  <si>
-    <t>A0791506</t>
-  </si>
-  <si>
-    <t>TestAutomation30652Updt</t>
-  </si>
-  <si>
-    <t>A0791507</t>
-  </si>
-  <si>
-    <t>A0791508</t>
-  </si>
-  <si>
-    <t>A0791509</t>
-  </si>
-  <si>
-    <t>TestAutomation12801Updt</t>
-  </si>
-  <si>
-    <t>A0791703</t>
-  </si>
-  <si>
-    <t>TestCartridge2801</t>
-  </si>
-  <si>
-    <t>TestAutomation22801Updt</t>
-  </si>
-  <si>
-    <t>A0791704</t>
-  </si>
-  <si>
-    <t>A0791705</t>
-  </si>
-  <si>
-    <t>A0791706</t>
-  </si>
-  <si>
-    <t>TestAutomation32801Updt</t>
-  </si>
-  <si>
-    <t>A0791707</t>
-  </si>
-  <si>
-    <t>A0791701</t>
-  </si>
-  <si>
-    <t>TestAutomation42801Updt</t>
-  </si>
-  <si>
-    <t>A0791710</t>
-  </si>
-  <si>
-    <t>A0791711</t>
-  </si>
-  <si>
-    <t>A0791712</t>
-  </si>
-  <si>
-    <t>A0791702</t>
-  </si>
-  <si>
-    <t>A0791708</t>
-  </si>
-  <si>
-    <t>A0791709</t>
-  </si>
-  <si>
-    <t>TestAutomation11016Updt</t>
-  </si>
-  <si>
-    <t>A0792001</t>
-  </si>
-  <si>
-    <t>TestCartridge1016</t>
-  </si>
-  <si>
-    <t>TestAutomation41016Updt</t>
-  </si>
-  <si>
-    <t>A0792010</t>
-  </si>
-  <si>
-    <t>A0792011</t>
-  </si>
-  <si>
-    <t>A0792012</t>
-  </si>
-  <si>
-    <t>A0792002</t>
-  </si>
-  <si>
-    <t>A0792003</t>
-  </si>
-  <si>
-    <t>TestAutomation21016Updt</t>
-  </si>
-  <si>
-    <t>A0792004</t>
-  </si>
-  <si>
-    <t>A0792005</t>
-  </si>
-  <si>
-    <t>A0792006</t>
-  </si>
-  <si>
-    <t>TestAutomation31016Updt</t>
-  </si>
-  <si>
-    <t>A0792007</t>
-  </si>
-  <si>
-    <t>A0792008</t>
-  </si>
-  <si>
-    <t>A0792009</t>
   </si>
 </sst>
 </file>
@@ -1190,13 +679,14 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="13.09765625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
@@ -1286,10 +776,10 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1307,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -1330,10 +820,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -1351,7 +841,7 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s">
         <v>31</v>
@@ -1374,10 +864,10 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1395,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s">
         <v>31</v>
@@ -1418,10 +908,10 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -1439,7 +929,7 @@
         <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s">
         <v>31</v>
@@ -1462,10 +952,10 @@
         <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -1483,7 +973,7 @@
         <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s">
         <v>31</v>
@@ -1506,10 +996,10 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -1527,7 +1017,7 @@
         <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s">
         <v>31</v>
@@ -1550,10 +1040,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1571,7 +1061,7 @@
         <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
@@ -1594,10 +1084,10 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1615,7 +1105,7 @@
         <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s">
         <v>31</v>
@@ -1638,10 +1128,10 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1659,7 +1149,7 @@
         <v>29</v>
       </c>
       <c r="R10" t="s">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s">
         <v>31</v>
@@ -1682,10 +1172,10 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -1703,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s">
         <v>31</v>
@@ -1726,10 +1216,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1747,7 +1237,7 @@
         <v>29</v>
       </c>
       <c r="R12" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s">
         <v>31</v>
@@ -1770,10 +1260,10 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1791,7 +1281,7 @@
         <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s">
         <v>31</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="143">
   <si>
     <t>Result Date</t>
   </si>
@@ -292,6 +292,159 @@
   </si>
   <si>
     <t>A0781609</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalSalm-31054Updt</t>
+  </si>
+  <si>
+    <t>A0819208</t>
+  </si>
+  <si>
+    <t>TestCartridgeSalm1054</t>
+  </si>
+  <si>
+    <t>A0819209</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalSalm-11054Updt</t>
+  </si>
+  <si>
+    <t>A0819201</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalSalm-41054Updt</t>
+  </si>
+  <si>
+    <t>A0819210</t>
+  </si>
+  <si>
+    <t>A0819211</t>
+  </si>
+  <si>
+    <t>A0819212</t>
+  </si>
+  <si>
+    <t>A0819202</t>
+  </si>
+  <si>
+    <t>A0819203</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalSalm-21054Updt</t>
+  </si>
+  <si>
+    <t>A0819204</t>
+  </si>
+  <si>
+    <t>A0819205</t>
+  </si>
+  <si>
+    <t>A0819206</t>
+  </si>
+  <si>
+    <t>A0819207</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalList-21054Updt</t>
+  </si>
+  <si>
+    <t>A0819305</t>
+  </si>
+  <si>
+    <t>TestCartridgeListeria1054</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalList-31054Updt</t>
+  </si>
+  <si>
+    <t>A0819308</t>
+  </si>
+  <si>
+    <t>A0819309</t>
+  </si>
+  <si>
+    <t>A0819306</t>
+  </si>
+  <si>
+    <t>A0819307</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalList-11054Updt</t>
+  </si>
+  <si>
+    <t>A0819301</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalList-41054Updt</t>
+  </si>
+  <si>
+    <t>A0819310</t>
+  </si>
+  <si>
+    <t>A0819311</t>
+  </si>
+  <si>
+    <t>A0819312</t>
+  </si>
+  <si>
+    <t>A0819302</t>
+  </si>
+  <si>
+    <t>A0819303</t>
+  </si>
+  <si>
+    <t>A0819304</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-41054Updt</t>
+  </si>
+  <si>
+    <t>A0819410</t>
+  </si>
+  <si>
+    <t>TestCartridge1054</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-11054Updt</t>
+  </si>
+  <si>
+    <t>A0819401</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-31054Updt</t>
+  </si>
+  <si>
+    <t>A0819407</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-21054Updt</t>
+  </si>
+  <si>
+    <t>A0819404</t>
+  </si>
+  <si>
+    <t>A0819405</t>
+  </si>
+  <si>
+    <t>A0819411</t>
+  </si>
+  <si>
+    <t>A0819412</t>
+  </si>
+  <si>
+    <t>A0819403</t>
+  </si>
+  <si>
+    <t>A0819402</t>
+  </si>
+  <si>
+    <t>A0819409</t>
+  </si>
+  <si>
+    <t>A0819408</t>
+  </si>
+  <si>
+    <t>A0819406</t>
   </si>
 </sst>
 </file>
@@ -773,13 +926,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -797,7 +950,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -817,13 +970,13 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -841,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="T3" t="s">
         <v>31</v>
@@ -861,13 +1014,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -885,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="T4" t="s">
         <v>31</v>
@@ -905,13 +1058,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -929,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="T5" t="s">
         <v>31</v>
@@ -949,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -973,7 +1126,7 @@
         <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="T6" t="s">
         <v>31</v>
@@ -993,13 +1146,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -1017,7 +1170,7 @@
         <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="T7" t="s">
         <v>31</v>
@@ -1037,13 +1190,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1061,7 +1214,7 @@
         <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
@@ -1081,13 +1234,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1105,7 +1258,7 @@
         <v>29</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="T9" t="s">
         <v>31</v>
@@ -1125,13 +1278,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1149,7 +1302,7 @@
         <v>29</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="T10" t="s">
         <v>31</v>
@@ -1169,13 +1322,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -1193,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="T11" t="s">
         <v>31</v>
@@ -1216,10 +1369,10 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1237,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="T12" t="s">
         <v>31</v>
@@ -1257,13 +1410,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -1281,7 +1434,7 @@
         <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="T13" t="s">
         <v>31</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -2,21 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AD36122E-4D8E-4371-9DEF-E92371D5DFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{389CF2C7-37C4-4998-9C74-44865D1F2F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23280" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3D54688B-24F0-435A-8F39-4942FD803198}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
   <si>
     <t>Result Date</t>
   </si>
@@ -90,378 +108,131 @@
     <t>05-25-2021</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>TestCartridge1054</t>
+  </si>
+  <si>
+    <t>A0819410</t>
+  </si>
+  <si>
+    <t>1001001</t>
+  </si>
+  <si>
+    <t>AT_SampleMatrix</t>
+  </si>
+  <si>
+    <t>CSampleID Test</t>
+  </si>
+  <si>
+    <t>RA Test</t>
+  </si>
+  <si>
+    <t>Flock Test</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-41054Updt</t>
+  </si>
+  <si>
+    <t>KitLot Test</t>
+  </si>
+  <si>
     <t>PSN0009</t>
   </si>
   <si>
+    <t>Jalam</t>
+  </si>
+  <si>
     <t>11:37 AM</t>
   </si>
   <si>
-    <t>1001001</t>
-  </si>
-  <si>
-    <t>Jalam</t>
-  </si>
-  <si>
-    <t>AT_SampleMatrix</t>
-  </si>
-  <si>
-    <t>Flock Test</t>
-  </si>
-  <si>
-    <t>RA Test</t>
-  </si>
-  <si>
-    <t>KitLot Test</t>
-  </si>
-  <si>
-    <t>CSampleID Test</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A0819401</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-11054Updt</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>A0819407</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-31054Updt</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>A0819404</t>
+  </si>
+  <si>
+    <t>20210729-TestAut-NormalCocci-21054Updt</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>A0819405</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>A0819411</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>A0819412</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>A0819403</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A0819402</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A0819409</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>A0819408</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>TestAutomation12959Updt</t>
-  </si>
-  <si>
-    <t>A0792201</t>
-  </si>
-  <si>
-    <t>TestCartridge2959</t>
-  </si>
-  <si>
-    <t>TestAutomation42959Updt</t>
-  </si>
-  <si>
-    <t>A0792210</t>
-  </si>
-  <si>
-    <t>A0792211</t>
-  </si>
-  <si>
-    <t>A0792212</t>
-  </si>
-  <si>
-    <t>A0792202</t>
-  </si>
-  <si>
-    <t>A0792203</t>
-  </si>
-  <si>
-    <t>TestAutomation22959Updt</t>
-  </si>
-  <si>
-    <t>A0792204</t>
-  </si>
-  <si>
-    <t>A0792205</t>
-  </si>
-  <si>
-    <t>A0792206</t>
-  </si>
-  <si>
-    <t>TestAutomation32959Updt</t>
-  </si>
-  <si>
-    <t>A0792207</t>
-  </si>
-  <si>
-    <t>A0792208</t>
-  </si>
-  <si>
-    <t>A0792209</t>
-  </si>
-  <si>
-    <t>TestAutomation25221Updt</t>
-  </si>
-  <si>
-    <t>A0793404</t>
-  </si>
-  <si>
-    <t>TestCartridge5221</t>
-  </si>
-  <si>
-    <t>TestAutomation15221Updt</t>
-  </si>
-  <si>
-    <t>A0793402</t>
-  </si>
-  <si>
-    <t>TestAutomation35221Updt</t>
-  </si>
-  <si>
-    <t>A0793407</t>
-  </si>
-  <si>
-    <t>A0793406</t>
-  </si>
-  <si>
-    <t>TestAutomation45221Updt</t>
-  </si>
-  <si>
-    <t>A0793410</t>
-  </si>
-  <si>
-    <t>A0793409</t>
-  </si>
-  <si>
-    <t>A0793403</t>
-  </si>
-  <si>
-    <t>A0793408</t>
-  </si>
-  <si>
-    <t>A0793405</t>
-  </si>
-  <si>
-    <t>A0793401</t>
-  </si>
-  <si>
-    <t>A0793412</t>
-  </si>
-  <si>
-    <t>A0793411</t>
-  </si>
-  <si>
-    <t>20210701-Salmonella-NA01UpdtUpdt</t>
-  </si>
-  <si>
-    <t>A0781601</t>
-  </si>
-  <si>
-    <t>A0781610</t>
-  </si>
-  <si>
-    <t>A0781611</t>
-  </si>
-  <si>
-    <t>A0781612</t>
-  </si>
-  <si>
-    <t>A0781602</t>
-  </si>
-  <si>
-    <t>A0781603</t>
-  </si>
-  <si>
-    <t>A0781604</t>
-  </si>
-  <si>
-    <t>A0781605</t>
-  </si>
-  <si>
-    <t>A0781606</t>
-  </si>
-  <si>
-    <t>A0781607</t>
-  </si>
-  <si>
-    <t>A0781608</t>
-  </si>
-  <si>
-    <t>A0781609</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalSalm-31054Updt</t>
-  </si>
-  <si>
-    <t>A0819208</t>
-  </si>
-  <si>
-    <t>TestCartridgeSalm1054</t>
-  </si>
-  <si>
-    <t>A0819209</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalSalm-11054Updt</t>
-  </si>
-  <si>
-    <t>A0819201</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalSalm-41054Updt</t>
-  </si>
-  <si>
-    <t>A0819210</t>
-  </si>
-  <si>
-    <t>A0819211</t>
-  </si>
-  <si>
-    <t>A0819212</t>
-  </si>
-  <si>
-    <t>A0819202</t>
-  </si>
-  <si>
-    <t>A0819203</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalSalm-21054Updt</t>
-  </si>
-  <si>
-    <t>A0819204</t>
-  </si>
-  <si>
-    <t>A0819205</t>
-  </si>
-  <si>
-    <t>A0819206</t>
-  </si>
-  <si>
-    <t>A0819207</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalList-21054Updt</t>
-  </si>
-  <si>
-    <t>A0819305</t>
-  </si>
-  <si>
-    <t>TestCartridgeListeria1054</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalList-31054Updt</t>
-  </si>
-  <si>
-    <t>A0819308</t>
-  </si>
-  <si>
-    <t>A0819309</t>
-  </si>
-  <si>
-    <t>A0819306</t>
-  </si>
-  <si>
-    <t>A0819307</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalList-11054Updt</t>
-  </si>
-  <si>
-    <t>A0819301</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalList-41054Updt</t>
-  </si>
-  <si>
-    <t>A0819310</t>
-  </si>
-  <si>
-    <t>A0819311</t>
-  </si>
-  <si>
-    <t>A0819312</t>
-  </si>
-  <si>
-    <t>A0819302</t>
-  </si>
-  <si>
-    <t>A0819303</t>
-  </si>
-  <si>
-    <t>A0819304</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalCocci-41054Updt</t>
-  </si>
-  <si>
-    <t>A0819410</t>
-  </si>
-  <si>
-    <t>TestCartridge1054</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalCocci-11054Updt</t>
-  </si>
-  <si>
-    <t>A0819401</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalCocci-31054Updt</t>
-  </si>
-  <si>
-    <t>A0819407</t>
-  </si>
-  <si>
-    <t>20210729-TestAut-NormalCocci-21054Updt</t>
-  </si>
-  <si>
-    <t>A0819404</t>
-  </si>
-  <si>
-    <t>A0819405</t>
-  </si>
-  <si>
-    <t>A0819411</t>
-  </si>
-  <si>
-    <t>A0819412</t>
-  </si>
-  <si>
-    <t>A0819403</t>
-  </si>
-  <si>
-    <t>A0819402</t>
-  </si>
-  <si>
-    <t>A0819409</t>
-  </si>
-  <si>
-    <t>A0819408</t>
-  </si>
-  <si>
     <t>A0819406</t>
+  </si>
+  <si>
+    <t>Collection Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -487,15 +258,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -518,44 +288,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -583,14 +353,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -618,6 +405,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,387 +433,332 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EC7794-5E29-45D8-A900-B5626FE28323}">
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.5" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.09765625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.69921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="19.69921875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.69921875" collapsed="true"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1017,43 +766,43 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1061,399 +810,395 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="T7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="T8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>30</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W12" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U13" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="V13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="W13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2 W2 S2 U2 I2:P2 E2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
   <si>
     <t>Result Date</t>
   </si>
@@ -223,12 +223,64 @@
   </si>
   <si>
     <t>Collection Date</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-NormalSalm-15454Updt</t>
+  </si>
+  <si>
+    <t>A0830701</t>
+  </si>
+  <si>
+    <t>TestCartridgeSalm5454</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-NormalSalm-45454Updt</t>
+  </si>
+  <si>
+    <t>A0830710</t>
+  </si>
+  <si>
+    <t>A0830711</t>
+  </si>
+  <si>
+    <t>A0830712</t>
+  </si>
+  <si>
+    <t>A0830702</t>
+  </si>
+  <si>
+    <t>A0830703</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-NormalSalm-25454Updt</t>
+  </si>
+  <si>
+    <t>A0830704</t>
+  </si>
+  <si>
+    <t>A0830705</t>
+  </si>
+  <si>
+    <t>A0830706</t>
+  </si>
+  <si>
+    <t>20210805-TestAut-NormalSalm-35454Updt</t>
+  </si>
+  <si>
+    <t>A0830707</t>
+  </si>
+  <si>
+    <t>A0830708</t>
+  </si>
+  <si>
+    <t>A0830709</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,18 +634,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.21875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -675,13 +727,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -699,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -719,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -743,7 +795,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -763,13 +815,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -787,7 +839,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -807,13 +859,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -831,7 +883,7 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -851,13 +903,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -875,7 +927,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -895,13 +947,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -919,7 +971,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -939,13 +991,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -963,7 +1015,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
@@ -983,13 +1035,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1007,7 +1059,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
         <v>33</v>
@@ -1027,13 +1079,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1051,7 +1103,7 @@
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -1071,13 +1123,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1095,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
@@ -1118,10 +1170,10 @@
         <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1139,7 +1191,7 @@
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -1159,13 +1211,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1183,7 +1235,7 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="233">
   <si>
     <t>Result Date</t>
   </si>
@@ -274,6 +274,465 @@
   </si>
   <si>
     <t>A0830709</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Salm-10716Updt</t>
+  </si>
+  <si>
+    <t>A0852401</t>
+  </si>
+  <si>
+    <t>TestCartridgeSalm0716</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Salm-40716Updt</t>
+  </si>
+  <si>
+    <t>A0852410</t>
+  </si>
+  <si>
+    <t>A0852411</t>
+  </si>
+  <si>
+    <t>A0852412</t>
+  </si>
+  <si>
+    <t>A0852402</t>
+  </si>
+  <si>
+    <t>A0852403</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Salm-20716Updt</t>
+  </si>
+  <si>
+    <t>A0852404</t>
+  </si>
+  <si>
+    <t>A0852405</t>
+  </si>
+  <si>
+    <t>A0852406</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Salm-30716Updt</t>
+  </si>
+  <si>
+    <t>A0852407</t>
+  </si>
+  <si>
+    <t>A0852408</t>
+  </si>
+  <si>
+    <t>A0852409</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Cocci-22609Updt</t>
+  </si>
+  <si>
+    <t>A0852806</t>
+  </si>
+  <si>
+    <t>TestCartridge2609</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Cocci-32609Updt</t>
+  </si>
+  <si>
+    <t>A0852809</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Cocci-12609Updt</t>
+  </si>
+  <si>
+    <t>A0852802</t>
+  </si>
+  <si>
+    <t>A0852803</t>
+  </si>
+  <si>
+    <t>20210825-TestAut-Cocci-42609Updt</t>
+  </si>
+  <si>
+    <t>A0852811</t>
+  </si>
+  <si>
+    <t>A0852808</t>
+  </si>
+  <si>
+    <t>A0852805</t>
+  </si>
+  <si>
+    <t>A0852812</t>
+  </si>
+  <si>
+    <t>A0852801</t>
+  </si>
+  <si>
+    <t>A0852804</t>
+  </si>
+  <si>
+    <t>A0852810</t>
+  </si>
+  <si>
+    <t>A0852807</t>
+  </si>
+  <si>
+    <t>20210825-Cocci-45756Updt</t>
+  </si>
+  <si>
+    <t>A0853011</t>
+  </si>
+  <si>
+    <t>TestCartridge5756</t>
+  </si>
+  <si>
+    <t>A0853012</t>
+  </si>
+  <si>
+    <t>20210825-Cocci-25756Updt</t>
+  </si>
+  <si>
+    <t>A0853005</t>
+  </si>
+  <si>
+    <t>20210825-Cocci-35756Updt</t>
+  </si>
+  <si>
+    <t>A0853009</t>
+  </si>
+  <si>
+    <t>A0853006</t>
+  </si>
+  <si>
+    <t>A0853010</t>
+  </si>
+  <si>
+    <t>20210825-Cocci-15756Updt</t>
+  </si>
+  <si>
+    <t>A0853002</t>
+  </si>
+  <si>
+    <t>A0853008</t>
+  </si>
+  <si>
+    <t>A0853007</t>
+  </si>
+  <si>
+    <t>A0853004</t>
+  </si>
+  <si>
+    <t>A0853001</t>
+  </si>
+  <si>
+    <t>A0853003</t>
+  </si>
+  <si>
+    <t>20210825-Salm-13908Updt</t>
+  </si>
+  <si>
+    <t>A0853401</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3908</t>
+  </si>
+  <si>
+    <t>20210825-Salm-43908Updt</t>
+  </si>
+  <si>
+    <t>A0853410</t>
+  </si>
+  <si>
+    <t>A0853411</t>
+  </si>
+  <si>
+    <t>A0853412</t>
+  </si>
+  <si>
+    <t>A0853402</t>
+  </si>
+  <si>
+    <t>A0853403</t>
+  </si>
+  <si>
+    <t>20210825-Salm-23908Updt</t>
+  </si>
+  <si>
+    <t>A0853404</t>
+  </si>
+  <si>
+    <t>A0853405</t>
+  </si>
+  <si>
+    <t>A0853406</t>
+  </si>
+  <si>
+    <t>20210825-Salm-33908Updt</t>
+  </si>
+  <si>
+    <t>A0853407</t>
+  </si>
+  <si>
+    <t>A0853408</t>
+  </si>
+  <si>
+    <t>A0853409</t>
+  </si>
+  <si>
+    <t>20210825-List-13908Updt</t>
+  </si>
+  <si>
+    <t>A0853501</t>
+  </si>
+  <si>
+    <t>CartridgeListeria3908</t>
+  </si>
+  <si>
+    <t>20210825-List-43908Updt</t>
+  </si>
+  <si>
+    <t>A0853510</t>
+  </si>
+  <si>
+    <t>A0853511</t>
+  </si>
+  <si>
+    <t>A0853512</t>
+  </si>
+  <si>
+    <t>A0853502</t>
+  </si>
+  <si>
+    <t>A0853503</t>
+  </si>
+  <si>
+    <t>20210825-List-23908Updt</t>
+  </si>
+  <si>
+    <t>A0853504</t>
+  </si>
+  <si>
+    <t>A0853505</t>
+  </si>
+  <si>
+    <t>A0853506</t>
+  </si>
+  <si>
+    <t>20210825-List-33908Updt</t>
+  </si>
+  <si>
+    <t>A0853507</t>
+  </si>
+  <si>
+    <t>A0853508</t>
+  </si>
+  <si>
+    <t>A0853509</t>
+  </si>
+  <si>
+    <t>20210907-Salm-13542Updt</t>
+  </si>
+  <si>
+    <t>A0910501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3542</t>
+  </si>
+  <si>
+    <t>A0910502</t>
+  </si>
+  <si>
+    <t>A0910503</t>
+  </si>
+  <si>
+    <t>20210907-Salm-23542Updt</t>
+  </si>
+  <si>
+    <t>A0910504</t>
+  </si>
+  <si>
+    <t>A0910505</t>
+  </si>
+  <si>
+    <t>A0910506</t>
+  </si>
+  <si>
+    <t>20210907-Salm-33542Updt</t>
+  </si>
+  <si>
+    <t>A0910507</t>
+  </si>
+  <si>
+    <t>A0910508</t>
+  </si>
+  <si>
+    <t>A0910509</t>
+  </si>
+  <si>
+    <t>20210907-Salm-43542Updt</t>
+  </si>
+  <si>
+    <t>A0910510</t>
+  </si>
+  <si>
+    <t>A0910511</t>
+  </si>
+  <si>
+    <t>A0910512</t>
+  </si>
+  <si>
+    <t>20210907-List-13542Updt</t>
+  </si>
+  <si>
+    <t>A0910801</t>
+  </si>
+  <si>
+    <t>CartridgeListeria3542</t>
+  </si>
+  <si>
+    <t>A0910802</t>
+  </si>
+  <si>
+    <t>A0910803</t>
+  </si>
+  <si>
+    <t>20210907-List-23542Updt</t>
+  </si>
+  <si>
+    <t>A0910804</t>
+  </si>
+  <si>
+    <t>A0910805</t>
+  </si>
+  <si>
+    <t>A0910806</t>
+  </si>
+  <si>
+    <t>20210907-List-33542Updt</t>
+  </si>
+  <si>
+    <t>A0910807</t>
+  </si>
+  <si>
+    <t>A0910808</t>
+  </si>
+  <si>
+    <t>A0910809</t>
+  </si>
+  <si>
+    <t>20210907-List-43542Updt</t>
+  </si>
+  <si>
+    <t>A0910810</t>
+  </si>
+  <si>
+    <t>A0910811</t>
+  </si>
+  <si>
+    <t>A0910812</t>
+  </si>
+  <si>
+    <t>20210908-Salm-11654Updt</t>
+  </si>
+  <si>
+    <t>A0915901</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1654</t>
+  </si>
+  <si>
+    <t>20210908-Salm-41654Updt</t>
+  </si>
+  <si>
+    <t>A0915910</t>
+  </si>
+  <si>
+    <t>A0915911</t>
+  </si>
+  <si>
+    <t>A0915912</t>
+  </si>
+  <si>
+    <t>A0915902</t>
+  </si>
+  <si>
+    <t>A0915903</t>
+  </si>
+  <si>
+    <t>20210908-Salm-21654Updt</t>
+  </si>
+  <si>
+    <t>A0915904</t>
+  </si>
+  <si>
+    <t>A0915905</t>
+  </si>
+  <si>
+    <t>A0915906</t>
+  </si>
+  <si>
+    <t>20210908-Salm-31654Updt</t>
+  </si>
+  <si>
+    <t>A0915907</t>
+  </si>
+  <si>
+    <t>A0915908</t>
+  </si>
+  <si>
+    <t>A0915909</t>
+  </si>
+  <si>
+    <t>20210913-Salm-12041Updt</t>
+  </si>
+  <si>
+    <t>A0935201</t>
+  </si>
+  <si>
+    <t>CartridgeSalm2041</t>
+  </si>
+  <si>
+    <t>A0935202</t>
+  </si>
+  <si>
+    <t>A0935203</t>
+  </si>
+  <si>
+    <t>20210913-Salm-22041Updt</t>
+  </si>
+  <si>
+    <t>A0935204</t>
+  </si>
+  <si>
+    <t>A0935205</t>
+  </si>
+  <si>
+    <t>A0935206</t>
+  </si>
+  <si>
+    <t>20210913-Salm-32041Updt</t>
+  </si>
+  <si>
+    <t>A0935207</t>
+  </si>
+  <si>
+    <t>A0935208</t>
+  </si>
+  <si>
+    <t>A0935209</t>
+  </si>
+  <si>
+    <t>20210913-Salm-42041Updt</t>
+  </si>
+  <si>
+    <t>A0935210</t>
+  </si>
+  <si>
+    <t>A0935211</t>
+  </si>
+  <si>
+    <t>A0935212</t>
   </si>
 </sst>
 </file>
@@ -645,7 +1104,7 @@
     <col min="18" max="18" bestFit="true" customWidth="true" width="21.88671875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="11.88671875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -730,10 +1189,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -751,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -771,13 +1230,13 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -795,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -815,13 +1274,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>220</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -839,7 +1298,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -859,13 +1318,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -883,7 +1342,7 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>221</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -903,13 +1362,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -927,7 +1386,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -947,13 +1406,13 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -971,7 +1430,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -991,13 +1450,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -1015,7 +1474,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
@@ -1035,13 +1494,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1059,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="T9" t="s">
         <v>33</v>
@@ -1079,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1103,7 +1562,7 @@
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -1123,13 +1582,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1147,7 +1606,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
@@ -1167,13 +1626,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1191,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -1211,13 +1670,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1235,7 +1694,7 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="483">
   <si>
     <t>Result Date</t>
   </si>
@@ -733,6 +733,756 @@
   </si>
   <si>
     <t>A0935212</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-20428Updt</t>
+  </si>
+  <si>
+    <t>09/14/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge0428</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-30428Updt</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-40428Updt</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-10428Updt</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-20840Updt</t>
+  </si>
+  <si>
+    <t>A0942206</t>
+  </si>
+  <si>
+    <t>TestCartridge0840</t>
+  </si>
+  <si>
+    <t>A0942205</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-10840Updt</t>
+  </si>
+  <si>
+    <t>A0942203</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-40840Updt</t>
+  </si>
+  <si>
+    <t>A0942212</t>
+  </si>
+  <si>
+    <t>A0942210</t>
+  </si>
+  <si>
+    <t>A0942204</t>
+  </si>
+  <si>
+    <t>20210914-Cocci-30840Updt</t>
+  </si>
+  <si>
+    <t>A0942209</t>
+  </si>
+  <si>
+    <t>A0942208</t>
+  </si>
+  <si>
+    <t>A0942202</t>
+  </si>
+  <si>
+    <t>A0942207</t>
+  </si>
+  <si>
+    <t>A0942211</t>
+  </si>
+  <si>
+    <t>A0942201</t>
+  </si>
+  <si>
+    <t>20210914-Salm-13929Updt</t>
+  </si>
+  <si>
+    <t>A0942901</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3929</t>
+  </si>
+  <si>
+    <t>A0942902</t>
+  </si>
+  <si>
+    <t>A0942903</t>
+  </si>
+  <si>
+    <t>20210914-Salm-23929Updt</t>
+  </si>
+  <si>
+    <t>A0942904</t>
+  </si>
+  <si>
+    <t>A0942905</t>
+  </si>
+  <si>
+    <t>A0942906</t>
+  </si>
+  <si>
+    <t>20210914-Salm-33929Updt</t>
+  </si>
+  <si>
+    <t>A0942907</t>
+  </si>
+  <si>
+    <t>A0942908</t>
+  </si>
+  <si>
+    <t>A0942909</t>
+  </si>
+  <si>
+    <t>20210914-Salm-43929Updt</t>
+  </si>
+  <si>
+    <t>A0942910</t>
+  </si>
+  <si>
+    <t>A0942911</t>
+  </si>
+  <si>
+    <t>A0942912</t>
+  </si>
+  <si>
+    <t>20210914-List-13929Updt</t>
+  </si>
+  <si>
+    <t>A0943001</t>
+  </si>
+  <si>
+    <t>CartridgeListeria3929</t>
+  </si>
+  <si>
+    <t>A0943002</t>
+  </si>
+  <si>
+    <t>A0943003</t>
+  </si>
+  <si>
+    <t>20210914-List-23929Updt</t>
+  </si>
+  <si>
+    <t>A0943004</t>
+  </si>
+  <si>
+    <t>A0943005</t>
+  </si>
+  <si>
+    <t>A0943006</t>
+  </si>
+  <si>
+    <t>20210914-List-33929Updt</t>
+  </si>
+  <si>
+    <t>A0943007</t>
+  </si>
+  <si>
+    <t>A0943008</t>
+  </si>
+  <si>
+    <t>A0943009</t>
+  </si>
+  <si>
+    <t>20210914-List-43929Updt</t>
+  </si>
+  <si>
+    <t>A0943010</t>
+  </si>
+  <si>
+    <t>A0943011</t>
+  </si>
+  <si>
+    <t>A0943012</t>
+  </si>
+  <si>
+    <t>20210915-Salm-10057Updt</t>
+  </si>
+  <si>
+    <t>A0943801</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0057</t>
+  </si>
+  <si>
+    <t>A0943802</t>
+  </si>
+  <si>
+    <t>A0943803</t>
+  </si>
+  <si>
+    <t>20210915-Salm-20057Updt</t>
+  </si>
+  <si>
+    <t>A0943804</t>
+  </si>
+  <si>
+    <t>A0943805</t>
+  </si>
+  <si>
+    <t>A0943806</t>
+  </si>
+  <si>
+    <t>20210915-Salm-30057Updt</t>
+  </si>
+  <si>
+    <t>A0943807</t>
+  </si>
+  <si>
+    <t>A0943808</t>
+  </si>
+  <si>
+    <t>A0943809</t>
+  </si>
+  <si>
+    <t>20210915-Salm-40057Updt</t>
+  </si>
+  <si>
+    <t>A0943810</t>
+  </si>
+  <si>
+    <t>A0943811</t>
+  </si>
+  <si>
+    <t>A0943812</t>
+  </si>
+  <si>
+    <t>20210915-List-10057Updt</t>
+  </si>
+  <si>
+    <t>A0944201</t>
+  </si>
+  <si>
+    <t>CartridgeListeria0057</t>
+  </si>
+  <si>
+    <t>A0944202</t>
+  </si>
+  <si>
+    <t>A0944203</t>
+  </si>
+  <si>
+    <t>20210915-List-20057Updt</t>
+  </si>
+  <si>
+    <t>A0944204</t>
+  </si>
+  <si>
+    <t>A0944205</t>
+  </si>
+  <si>
+    <t>A0944206</t>
+  </si>
+  <si>
+    <t>20210915-List-30057Updt</t>
+  </si>
+  <si>
+    <t>A0944207</t>
+  </si>
+  <si>
+    <t>A0944208</t>
+  </si>
+  <si>
+    <t>A0944209</t>
+  </si>
+  <si>
+    <t>20210915-List-40057Updt</t>
+  </si>
+  <si>
+    <t>A0944210</t>
+  </si>
+  <si>
+    <t>A0944211</t>
+  </si>
+  <si>
+    <t>A0944212</t>
+  </si>
+  <si>
+    <t>20210915-Cocci-30057Updt</t>
+  </si>
+  <si>
+    <t>A0944907</t>
+  </si>
+  <si>
+    <t>TestCartridge0057</t>
+  </si>
+  <si>
+    <t>20210915-Cocci-20057Updt</t>
+  </si>
+  <si>
+    <t>A0944905</t>
+  </si>
+  <si>
+    <t>20210915-Cocci-10057Updt</t>
+  </si>
+  <si>
+    <t>A0944902</t>
+  </si>
+  <si>
+    <t>A0944901</t>
+  </si>
+  <si>
+    <t>20210915-Cocci-40057Updt</t>
+  </si>
+  <si>
+    <t>A0944910</t>
+  </si>
+  <si>
+    <t>A0944904</t>
+  </si>
+  <si>
+    <t>A0944909</t>
+  </si>
+  <si>
+    <t>A0944911</t>
+  </si>
+  <si>
+    <t>A0944906</t>
+  </si>
+  <si>
+    <t>A0944903</t>
+  </si>
+  <si>
+    <t>A0944908</t>
+  </si>
+  <si>
+    <t>A0944912</t>
+  </si>
+  <si>
+    <t>20210917-Salm-12646Updt</t>
+  </si>
+  <si>
+    <t>A0961301</t>
+  </si>
+  <si>
+    <t>CartridgeSalm2646</t>
+  </si>
+  <si>
+    <t>A0961302</t>
+  </si>
+  <si>
+    <t>A0961303</t>
+  </si>
+  <si>
+    <t>20210917-Salm-22646Updt</t>
+  </si>
+  <si>
+    <t>A0961304</t>
+  </si>
+  <si>
+    <t>A0961305</t>
+  </si>
+  <si>
+    <t>A0961306</t>
+  </si>
+  <si>
+    <t>20210917-Salm-32646Updt</t>
+  </si>
+  <si>
+    <t>A0961307</t>
+  </si>
+  <si>
+    <t>A0961308</t>
+  </si>
+  <si>
+    <t>A0961309</t>
+  </si>
+  <si>
+    <t>20210917-Salm-42646Updt</t>
+  </si>
+  <si>
+    <t>A0961310</t>
+  </si>
+  <si>
+    <t>A0961311</t>
+  </si>
+  <si>
+    <t>A0961312</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-12646Updt</t>
+  </si>
+  <si>
+    <t>A0961803</t>
+  </si>
+  <si>
+    <t>TestCartridge2646</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-22646Updt</t>
+  </si>
+  <si>
+    <t>A0961806</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-42646Updt</t>
+  </si>
+  <si>
+    <t>A0961812</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-32646Updt</t>
+  </si>
+  <si>
+    <t>A0961809</t>
+  </si>
+  <si>
+    <t>A0961804</t>
+  </si>
+  <si>
+    <t>A0961801</t>
+  </si>
+  <si>
+    <t>A0961807</t>
+  </si>
+  <si>
+    <t>A0961811</t>
+  </si>
+  <si>
+    <t>A0961802</t>
+  </si>
+  <si>
+    <t>A0961808</t>
+  </si>
+  <si>
+    <t>A0961810</t>
+  </si>
+  <si>
+    <t>A0961805</t>
+  </si>
+  <si>
+    <t>20210917-Salm-10331Updt</t>
+  </si>
+  <si>
+    <t>A0966601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0331</t>
+  </si>
+  <si>
+    <t>A0966602</t>
+  </si>
+  <si>
+    <t>A0966603</t>
+  </si>
+  <si>
+    <t>20210917-Salm-20331Updt</t>
+  </si>
+  <si>
+    <t>A0966604</t>
+  </si>
+  <si>
+    <t>A0966605</t>
+  </si>
+  <si>
+    <t>A0966606</t>
+  </si>
+  <si>
+    <t>20210917-Salm-30331Updt</t>
+  </si>
+  <si>
+    <t>A0966607</t>
+  </si>
+  <si>
+    <t>A0966608</t>
+  </si>
+  <si>
+    <t>A0966609</t>
+  </si>
+  <si>
+    <t>20210917-Salm-40331Updt</t>
+  </si>
+  <si>
+    <t>A0966610</t>
+  </si>
+  <si>
+    <t>A0966611</t>
+  </si>
+  <si>
+    <t>A0966612</t>
+  </si>
+  <si>
+    <t>20210917-List-10331Updt</t>
+  </si>
+  <si>
+    <t>A0967201</t>
+  </si>
+  <si>
+    <t>CartridgeListeria0331</t>
+  </si>
+  <si>
+    <t>20210917-List-40331Updt</t>
+  </si>
+  <si>
+    <t>A0967211</t>
+  </si>
+  <si>
+    <t>A0967212</t>
+  </si>
+  <si>
+    <t>A0967202</t>
+  </si>
+  <si>
+    <t>A0967203</t>
+  </si>
+  <si>
+    <t>20210917-List-20331Updt</t>
+  </si>
+  <si>
+    <t>A0967204</t>
+  </si>
+  <si>
+    <t>A0967205</t>
+  </si>
+  <si>
+    <t>A0967206</t>
+  </si>
+  <si>
+    <t>20210917-List-30331Updt</t>
+  </si>
+  <si>
+    <t>A0967207</t>
+  </si>
+  <si>
+    <t>A0967208</t>
+  </si>
+  <si>
+    <t>A0967209</t>
+  </si>
+  <si>
+    <t>A0967210</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-40331Updt</t>
+  </si>
+  <si>
+    <t>A0967911</t>
+  </si>
+  <si>
+    <t>TestCartridge0331</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-20331Updt</t>
+  </si>
+  <si>
+    <t>A0967904</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-10331Updt</t>
+  </si>
+  <si>
+    <t>A0967903</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-30331Updt</t>
+  </si>
+  <si>
+    <t>A0967909</t>
+  </si>
+  <si>
+    <t>A0967901</t>
+  </si>
+  <si>
+    <t>A0967902</t>
+  </si>
+  <si>
+    <t>A0967908</t>
+  </si>
+  <si>
+    <t>A0967907</t>
+  </si>
+  <si>
+    <t>A0967912</t>
+  </si>
+  <si>
+    <t>A0967906</t>
+  </si>
+  <si>
+    <t>A0967905</t>
+  </si>
+  <si>
+    <t>A0967910</t>
+  </si>
+  <si>
+    <t>20210917-List-13921Updt</t>
+  </si>
+  <si>
+    <t>A0530701</t>
+  </si>
+  <si>
+    <t>CartridgeListeria3921</t>
+  </si>
+  <si>
+    <t>20210917-List-43921Updt</t>
+  </si>
+  <si>
+    <t>A0530710</t>
+  </si>
+  <si>
+    <t>A0530711</t>
+  </si>
+  <si>
+    <t>A0530712</t>
+  </si>
+  <si>
+    <t>A0530702</t>
+  </si>
+  <si>
+    <t>A0530703</t>
+  </si>
+  <si>
+    <t>20210917-List-23921Updt</t>
+  </si>
+  <si>
+    <t>A0530704</t>
+  </si>
+  <si>
+    <t>A0530705</t>
+  </si>
+  <si>
+    <t>A0530706</t>
+  </si>
+  <si>
+    <t>20210917-List-33921Updt</t>
+  </si>
+  <si>
+    <t>A0530707</t>
+  </si>
+  <si>
+    <t>A0530708</t>
+  </si>
+  <si>
+    <t>A0530709</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-23921Updt</t>
+  </si>
+  <si>
+    <t>A0530904</t>
+  </si>
+  <si>
+    <t>TestCartridge3921</t>
+  </si>
+  <si>
+    <t>A0530905</t>
+  </si>
+  <si>
+    <t>A0530906</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-33921Updt</t>
+  </si>
+  <si>
+    <t>A0530907</t>
+  </si>
+  <si>
+    <t>A0530908</t>
+  </si>
+  <si>
+    <t>A0530909</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-13921Updt</t>
+  </si>
+  <si>
+    <t>A0530901</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-43921Updt</t>
+  </si>
+  <si>
+    <t>A0530910</t>
+  </si>
+  <si>
+    <t>A0530911</t>
+  </si>
+  <si>
+    <t>A0530912</t>
+  </si>
+  <si>
+    <t>A0530902</t>
+  </si>
+  <si>
+    <t>A0530903</t>
+  </si>
+  <si>
+    <t>20210917-Salm-11840Updt</t>
+  </si>
+  <si>
+    <t>A0531101</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1840</t>
+  </si>
+  <si>
+    <t>A0531102</t>
+  </si>
+  <si>
+    <t>A0531103</t>
+  </si>
+  <si>
+    <t>20210917-Salm-21840Updt</t>
+  </si>
+  <si>
+    <t>A0531104</t>
+  </si>
+  <si>
+    <t>A0531105</t>
+  </si>
+  <si>
+    <t>A0531106</t>
+  </si>
+  <si>
+    <t>20210917-Salm-31840Updt</t>
+  </si>
+  <si>
+    <t>A0531107</t>
+  </si>
+  <si>
+    <t>A0531108</t>
+  </si>
+  <si>
+    <t>A0531109</t>
+  </si>
+  <si>
+    <t>20210917-Salm-41840Updt</t>
+  </si>
+  <si>
+    <t>A0531110</t>
+  </si>
+  <si>
+    <t>A0531111</t>
+  </si>
+  <si>
+    <t>A0531112</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-42923Updt</t>
+  </si>
+  <si>
+    <t>09/17/2021</t>
+  </si>
+  <si>
+    <t>TestCartridge2923</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-32923Updt</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-12923Updt</t>
+  </si>
+  <si>
+    <t>20210917-Cocci-22923Updt</t>
   </si>
 </sst>
 </file>
@@ -1186,13 +1936,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1210,7 +1960,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>216</v>
+        <v>477</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -1230,13 +1980,13 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>478</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -1254,7 +2004,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -1274,13 +2024,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>478</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1298,7 +2048,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>216</v>
+        <v>477</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -1318,13 +2068,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>478</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -1342,7 +2092,7 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>221</v>
+        <v>481</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -1362,13 +2112,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>478</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -1386,7 +2136,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>221</v>
+        <v>481</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -1409,10 +2159,10 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>478</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1430,7 +2180,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>221</v>
+        <v>482</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -1450,13 +2200,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>478</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -1474,7 +2224,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>225</v>
+        <v>477</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
@@ -1494,13 +2244,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>478</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1518,7 +2268,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="T9" t="s">
         <v>33</v>
@@ -1538,13 +2288,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>478</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1562,7 +2312,7 @@
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>225</v>
+        <v>482</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -1582,13 +2332,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D11" t="s">
-        <v>230</v>
+        <v>478</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -1606,7 +2356,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>229</v>
+        <v>482</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
@@ -1626,13 +2376,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>478</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -1650,7 +2400,7 @@
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>229</v>
+        <v>481</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -1670,13 +2420,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="D13" t="s">
-        <v>232</v>
+        <v>478</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -1694,7 +2444,7 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>229</v>
+        <v>480</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="636">
   <si>
     <t>Result Date</t>
   </si>
@@ -1483,6 +1483,465 @@
   </si>
   <si>
     <t>20210917-Cocci-22923Updt</t>
+  </si>
+  <si>
+    <t>20210921-Salm-14252Updt</t>
+  </si>
+  <si>
+    <t>A0981201</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4252</t>
+  </si>
+  <si>
+    <t>A0981202</t>
+  </si>
+  <si>
+    <t>A0981203</t>
+  </si>
+  <si>
+    <t>20210921-Salm-24252Updt</t>
+  </si>
+  <si>
+    <t>A0981204</t>
+  </si>
+  <si>
+    <t>A0981205</t>
+  </si>
+  <si>
+    <t>A0981206</t>
+  </si>
+  <si>
+    <t>20210921-Salm-34252Updt</t>
+  </si>
+  <si>
+    <t>A0981207</t>
+  </si>
+  <si>
+    <t>A0981208</t>
+  </si>
+  <si>
+    <t>A0981209</t>
+  </si>
+  <si>
+    <t>20210921-Salm-44252Updt</t>
+  </si>
+  <si>
+    <t>A0981210</t>
+  </si>
+  <si>
+    <t>A0981211</t>
+  </si>
+  <si>
+    <t>A0981212</t>
+  </si>
+  <si>
+    <t>20210921-Salm-10259Updt</t>
+  </si>
+  <si>
+    <t>A0981501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0259</t>
+  </si>
+  <si>
+    <t>A0981502</t>
+  </si>
+  <si>
+    <t>A0981503</t>
+  </si>
+  <si>
+    <t>20210921-Salm-20259Updt</t>
+  </si>
+  <si>
+    <t>A0981504</t>
+  </si>
+  <si>
+    <t>A0981505</t>
+  </si>
+  <si>
+    <t>A0981506</t>
+  </si>
+  <si>
+    <t>20210921-Salm-30259Updt</t>
+  </si>
+  <si>
+    <t>A0981507</t>
+  </si>
+  <si>
+    <t>A0981508</t>
+  </si>
+  <si>
+    <t>A0981509</t>
+  </si>
+  <si>
+    <t>20210921-Salm-40259Updt</t>
+  </si>
+  <si>
+    <t>A0981510</t>
+  </si>
+  <si>
+    <t>A0981511</t>
+  </si>
+  <si>
+    <t>A0981512</t>
+  </si>
+  <si>
+    <t>20210921-Cocci-22740Updt</t>
+  </si>
+  <si>
+    <t>A0982205</t>
+  </si>
+  <si>
+    <t>TestCartridge2740</t>
+  </si>
+  <si>
+    <t>A0982206</t>
+  </si>
+  <si>
+    <t>20210921-Cocci-32740Updt</t>
+  </si>
+  <si>
+    <t>A0982207</t>
+  </si>
+  <si>
+    <t>A0982208</t>
+  </si>
+  <si>
+    <t>A0982209</t>
+  </si>
+  <si>
+    <t>20210921-Cocci-42740Updt</t>
+  </si>
+  <si>
+    <t>A0982210</t>
+  </si>
+  <si>
+    <t>A0982211</t>
+  </si>
+  <si>
+    <t>A0982212</t>
+  </si>
+  <si>
+    <t>20210921-Cocci-12740Updt</t>
+  </si>
+  <si>
+    <t>A0982201</t>
+  </si>
+  <si>
+    <t>A0982202</t>
+  </si>
+  <si>
+    <t>A0982203</t>
+  </si>
+  <si>
+    <t>A0982204</t>
+  </si>
+  <si>
+    <t>20210922-Salm-15030Updt</t>
+  </si>
+  <si>
+    <t>A0984601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5030</t>
+  </si>
+  <si>
+    <t>A0984602</t>
+  </si>
+  <si>
+    <t>A0984603</t>
+  </si>
+  <si>
+    <t>20210922-Salm-25030Updt</t>
+  </si>
+  <si>
+    <t>A0984604</t>
+  </si>
+  <si>
+    <t>A0984605</t>
+  </si>
+  <si>
+    <t>A0984606</t>
+  </si>
+  <si>
+    <t>20210922-Salm-35030Updt</t>
+  </si>
+  <si>
+    <t>A0984607</t>
+  </si>
+  <si>
+    <t>A0984608</t>
+  </si>
+  <si>
+    <t>A0984609</t>
+  </si>
+  <si>
+    <t>20210922-Salm-45030Updt</t>
+  </si>
+  <si>
+    <t>A0984610</t>
+  </si>
+  <si>
+    <t>A0984611</t>
+  </si>
+  <si>
+    <t>A0984612</t>
+  </si>
+  <si>
+    <t>20210922-List-15030Updt</t>
+  </si>
+  <si>
+    <t>A0984901</t>
+  </si>
+  <si>
+    <t>CartridgeListeria5030</t>
+  </si>
+  <si>
+    <t>A0984902</t>
+  </si>
+  <si>
+    <t>A0984903</t>
+  </si>
+  <si>
+    <t>20210922-List-25030Updt</t>
+  </si>
+  <si>
+    <t>A0984904</t>
+  </si>
+  <si>
+    <t>A0984905</t>
+  </si>
+  <si>
+    <t>A0984906</t>
+  </si>
+  <si>
+    <t>20210922-List-35030Updt</t>
+  </si>
+  <si>
+    <t>A0984907</t>
+  </si>
+  <si>
+    <t>A0984908</t>
+  </si>
+  <si>
+    <t>A0984909</t>
+  </si>
+  <si>
+    <t>20210922-List-45030Updt</t>
+  </si>
+  <si>
+    <t>A0984910</t>
+  </si>
+  <si>
+    <t>A0984911</t>
+  </si>
+  <si>
+    <t>A0984912</t>
+  </si>
+  <si>
+    <t>20210922-Cocci-15030Updt</t>
+  </si>
+  <si>
+    <t>A0985401</t>
+  </si>
+  <si>
+    <t>TestCartridge5030</t>
+  </si>
+  <si>
+    <t>A0985402</t>
+  </si>
+  <si>
+    <t>A0985403</t>
+  </si>
+  <si>
+    <t>20210922-Cocci-25030Updt</t>
+  </si>
+  <si>
+    <t>A0985404</t>
+  </si>
+  <si>
+    <t>A0985405</t>
+  </si>
+  <si>
+    <t>A0985406</t>
+  </si>
+  <si>
+    <t>20210922-Cocci-35030Updt</t>
+  </si>
+  <si>
+    <t>A0985407</t>
+  </si>
+  <si>
+    <t>A0985408</t>
+  </si>
+  <si>
+    <t>A0985409</t>
+  </si>
+  <si>
+    <t>20210922-Cocci-45030Updt</t>
+  </si>
+  <si>
+    <t>A0985410</t>
+  </si>
+  <si>
+    <t>A0985411</t>
+  </si>
+  <si>
+    <t>A0985412</t>
+  </si>
+  <si>
+    <t>20210923-Salm-11020Updt</t>
+  </si>
+  <si>
+    <t>A0995401</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1020</t>
+  </si>
+  <si>
+    <t>A0995402</t>
+  </si>
+  <si>
+    <t>A0995403</t>
+  </si>
+  <si>
+    <t>20210923-Salm-21020Updt</t>
+  </si>
+  <si>
+    <t>A0995404</t>
+  </si>
+  <si>
+    <t>A0995405</t>
+  </si>
+  <si>
+    <t>A0995406</t>
+  </si>
+  <si>
+    <t>20210923-Salm-31020Updt</t>
+  </si>
+  <si>
+    <t>A0995407</t>
+  </si>
+  <si>
+    <t>A0995408</t>
+  </si>
+  <si>
+    <t>A0995409</t>
+  </si>
+  <si>
+    <t>20210923-Salm-41020Updt</t>
+  </si>
+  <si>
+    <t>A0995410</t>
+  </si>
+  <si>
+    <t>A0995411</t>
+  </si>
+  <si>
+    <t>A0995412</t>
+  </si>
+  <si>
+    <t>20210923-List-11020Updt</t>
+  </si>
+  <si>
+    <t>A0995501</t>
+  </si>
+  <si>
+    <t>CartridgeListeria1020</t>
+  </si>
+  <si>
+    <t>A0995502</t>
+  </si>
+  <si>
+    <t>A0995503</t>
+  </si>
+  <si>
+    <t>20210923-List-21020Updt</t>
+  </si>
+  <si>
+    <t>A0995504</t>
+  </si>
+  <si>
+    <t>A0995505</t>
+  </si>
+  <si>
+    <t>A0995506</t>
+  </si>
+  <si>
+    <t>20210923-List-31020Updt</t>
+  </si>
+  <si>
+    <t>A0995507</t>
+  </si>
+  <si>
+    <t>A0995508</t>
+  </si>
+  <si>
+    <t>A0995509</t>
+  </si>
+  <si>
+    <t>20210923-List-41020Updt</t>
+  </si>
+  <si>
+    <t>A0995510</t>
+  </si>
+  <si>
+    <t>A0995511</t>
+  </si>
+  <si>
+    <t>A0995512</t>
+  </si>
+  <si>
+    <t>20210923-Cocci-11020Updt</t>
+  </si>
+  <si>
+    <t>A0995601</t>
+  </si>
+  <si>
+    <t>TestCartridge1020</t>
+  </si>
+  <si>
+    <t>A0995602</t>
+  </si>
+  <si>
+    <t>A0995603</t>
+  </si>
+  <si>
+    <t>20210923-Cocci-21020Updt</t>
+  </si>
+  <si>
+    <t>A0995604</t>
+  </si>
+  <si>
+    <t>A0995605</t>
+  </si>
+  <si>
+    <t>A0995606</t>
+  </si>
+  <si>
+    <t>20210923-Cocci-31020Updt</t>
+  </si>
+  <si>
+    <t>A0995607</t>
+  </si>
+  <si>
+    <t>A0995608</t>
+  </si>
+  <si>
+    <t>A0995609</t>
+  </si>
+  <si>
+    <t>20210923-Cocci-41020Updt</t>
+  </si>
+  <si>
+    <t>A0995610</t>
+  </si>
+  <si>
+    <t>A0995611</t>
+  </si>
+  <si>
+    <t>A0995612</t>
   </si>
 </sst>
 </file>
@@ -1936,13 +2395,13 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>620</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1960,7 +2419,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>477</v>
+        <v>619</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -1980,13 +2439,13 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>622</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -2004,7 +2463,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>480</v>
+        <v>619</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -2024,13 +2483,13 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2048,7 +2507,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>477</v>
+        <v>619</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -2068,13 +2527,13 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>625</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2092,7 +2551,7 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>481</v>
+        <v>624</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -2112,13 +2571,13 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D6" t="s">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -2136,7 +2595,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>481</v>
+        <v>624</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -2159,10 +2618,10 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D7" t="s">
-        <v>478</v>
+        <v>627</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2180,7 +2639,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>482</v>
+        <v>624</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -2200,13 +2659,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>629</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -2224,7 +2683,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>477</v>
+        <v>628</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
@@ -2244,13 +2703,13 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>630</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -2268,7 +2727,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>480</v>
+        <v>628</v>
       </c>
       <c r="T9" t="s">
         <v>33</v>
@@ -2288,13 +2747,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>631</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -2312,7 +2771,7 @@
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>482</v>
+        <v>628</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -2332,13 +2791,13 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>633</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -2356,7 +2815,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>482</v>
+        <v>632</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
@@ -2376,13 +2835,13 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>634</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -2400,7 +2859,7 @@
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>481</v>
+        <v>632</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -2420,13 +2879,13 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>621</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>635</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -2444,7 +2903,7 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>480</v>
+        <v>632</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="687">
   <si>
     <t>Result Date</t>
   </si>
@@ -1942,6 +1942,159 @@
   </si>
   <si>
     <t>A0995612</t>
+  </si>
+  <si>
+    <t>20210927-Salm-44958Updt</t>
+  </si>
+  <si>
+    <t>A1011011</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4958</t>
+  </si>
+  <si>
+    <t>A1011012</t>
+  </si>
+  <si>
+    <t>20210927-Salm-14958Updt</t>
+  </si>
+  <si>
+    <t>A1011001</t>
+  </si>
+  <si>
+    <t>A1011002</t>
+  </si>
+  <si>
+    <t>A1011003</t>
+  </si>
+  <si>
+    <t>20210927-Salm-24958Updt</t>
+  </si>
+  <si>
+    <t>A1011004</t>
+  </si>
+  <si>
+    <t>A1011005</t>
+  </si>
+  <si>
+    <t>A1011006</t>
+  </si>
+  <si>
+    <t>20210927-Salm-34958Updt</t>
+  </si>
+  <si>
+    <t>A1011007</t>
+  </si>
+  <si>
+    <t>A1011008</t>
+  </si>
+  <si>
+    <t>A1011009</t>
+  </si>
+  <si>
+    <t>A1011010</t>
+  </si>
+  <si>
+    <t>20210927-List-24958Updt</t>
+  </si>
+  <si>
+    <t>A1011105</t>
+  </si>
+  <si>
+    <t>CartridgeListeria4958</t>
+  </si>
+  <si>
+    <t>A1011106</t>
+  </si>
+  <si>
+    <t>20210927-List-34958Updt</t>
+  </si>
+  <si>
+    <t>A1011107</t>
+  </si>
+  <si>
+    <t>A1011108</t>
+  </si>
+  <si>
+    <t>A1011109</t>
+  </si>
+  <si>
+    <t>20210927-List-44958Updt</t>
+  </si>
+  <si>
+    <t>A1011110</t>
+  </si>
+  <si>
+    <t>A1011111</t>
+  </si>
+  <si>
+    <t>A1011112</t>
+  </si>
+  <si>
+    <t>20210927-List-14958Updt</t>
+  </si>
+  <si>
+    <t>A1011101</t>
+  </si>
+  <si>
+    <t>A1011102</t>
+  </si>
+  <si>
+    <t>A1011103</t>
+  </si>
+  <si>
+    <t>A1011104</t>
+  </si>
+  <si>
+    <t>20210927-Cocci-14958Updt</t>
+  </si>
+  <si>
+    <t>A1011201</t>
+  </si>
+  <si>
+    <t>TestCartridge4958</t>
+  </si>
+  <si>
+    <t>A1011202</t>
+  </si>
+  <si>
+    <t>A1011203</t>
+  </si>
+  <si>
+    <t>20210927-Cocci-24958Updt</t>
+  </si>
+  <si>
+    <t>A1011204</t>
+  </si>
+  <si>
+    <t>A1011205</t>
+  </si>
+  <si>
+    <t>A1011206</t>
+  </si>
+  <si>
+    <t>20210927-Cocci-34958Updt</t>
+  </si>
+  <si>
+    <t>A1011207</t>
+  </si>
+  <si>
+    <t>A1011208</t>
+  </si>
+  <si>
+    <t>A1011209</t>
+  </si>
+  <si>
+    <t>20210927-Cocci-44958Updt</t>
+  </si>
+  <si>
+    <t>A1011210</t>
+  </si>
+  <si>
+    <t>A1011211</t>
+  </si>
+  <si>
+    <t>A1011212</t>
   </si>
 </sst>
 </file>
@@ -2398,10 +2551,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D2" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2419,7 +2572,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -2442,10 +2595,10 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D3" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -2463,7 +2616,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -2486,10 +2639,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D4" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2507,7 +2660,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -2530,10 +2683,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D5" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2551,7 +2704,7 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -2574,10 +2727,10 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D6" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -2595,7 +2748,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -2618,10 +2771,10 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D7" t="s">
-        <v>627</v>
+        <v>678</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2639,7 +2792,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -2662,10 +2815,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D8" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -2683,7 +2836,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
@@ -2706,10 +2859,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D9" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -2727,7 +2880,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="T9" t="s">
         <v>33</v>
@@ -2750,10 +2903,10 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D10" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -2771,7 +2924,7 @@
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -2794,10 +2947,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D11" t="s">
-        <v>633</v>
+        <v>684</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -2815,7 +2968,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
@@ -2838,10 +2991,10 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D12" t="s">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -2859,7 +3012,7 @@
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -2882,10 +3035,10 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="D13" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -2903,7 +3056,7 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4752" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="806">
   <si>
     <t>Result Date</t>
   </si>
@@ -2095,6 +2095,363 @@
   </si>
   <si>
     <t>A1011212</t>
+  </si>
+  <si>
+    <t>20211007-Salm-33650Updt</t>
+  </si>
+  <si>
+    <t>A1021808</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3650</t>
+  </si>
+  <si>
+    <t>A1021809</t>
+  </si>
+  <si>
+    <t>20211007-Salm-43650Updt</t>
+  </si>
+  <si>
+    <t>A1021810</t>
+  </si>
+  <si>
+    <t>A1021811</t>
+  </si>
+  <si>
+    <t>A1021812</t>
+  </si>
+  <si>
+    <t>20211007-Salm-13650Updt</t>
+  </si>
+  <si>
+    <t>A1021801</t>
+  </si>
+  <si>
+    <t>A1021802</t>
+  </si>
+  <si>
+    <t>A1021803</t>
+  </si>
+  <si>
+    <t>20211007-Salm-23650Updt</t>
+  </si>
+  <si>
+    <t>A1021804</t>
+  </si>
+  <si>
+    <t>A1021805</t>
+  </si>
+  <si>
+    <t>A1021806</t>
+  </si>
+  <si>
+    <t>A1021807</t>
+  </si>
+  <si>
+    <t>20211007-Cocci-11527Updt</t>
+  </si>
+  <si>
+    <t>A1022503</t>
+  </si>
+  <si>
+    <t>TestCartridge1527</t>
+  </si>
+  <si>
+    <t>20211007-Cocci-21527Updt</t>
+  </si>
+  <si>
+    <t>A1022504</t>
+  </si>
+  <si>
+    <t>A1022505</t>
+  </si>
+  <si>
+    <t>A1022506</t>
+  </si>
+  <si>
+    <t>20211007-Cocci-31527Updt</t>
+  </si>
+  <si>
+    <t>A1022507</t>
+  </si>
+  <si>
+    <t>A1022508</t>
+  </si>
+  <si>
+    <t>A1022509</t>
+  </si>
+  <si>
+    <t>20211007-Cocci-41527Updt</t>
+  </si>
+  <si>
+    <t>A1022510</t>
+  </si>
+  <si>
+    <t>A1022511</t>
+  </si>
+  <si>
+    <t>A1022512</t>
+  </si>
+  <si>
+    <t>A1022501</t>
+  </si>
+  <si>
+    <t>A1022502</t>
+  </si>
+  <si>
+    <t>20211007-Salm-11552Updt</t>
+  </si>
+  <si>
+    <t>A1023601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1552</t>
+  </si>
+  <si>
+    <t>A1023602</t>
+  </si>
+  <si>
+    <t>A1023603</t>
+  </si>
+  <si>
+    <t>20211007-Salm-21552Updt</t>
+  </si>
+  <si>
+    <t>A1023604</t>
+  </si>
+  <si>
+    <t>A1023605</t>
+  </si>
+  <si>
+    <t>A1023606</t>
+  </si>
+  <si>
+    <t>20211007-Salm-31552Updt</t>
+  </si>
+  <si>
+    <t>A1023607</t>
+  </si>
+  <si>
+    <t>A1023608</t>
+  </si>
+  <si>
+    <t>A1023609</t>
+  </si>
+  <si>
+    <t>20211007-Salm-41552Updt</t>
+  </si>
+  <si>
+    <t>A1023610</t>
+  </si>
+  <si>
+    <t>A1023611</t>
+  </si>
+  <si>
+    <t>A1023612</t>
+  </si>
+  <si>
+    <t>20211007-List-41552Updt</t>
+  </si>
+  <si>
+    <t>A1023812</t>
+  </si>
+  <si>
+    <t>CartridgeListeria1552</t>
+  </si>
+  <si>
+    <t>20211007-List-21552Updt</t>
+  </si>
+  <si>
+    <t>A1023806</t>
+  </si>
+  <si>
+    <t>20211007-List-31552Updt</t>
+  </si>
+  <si>
+    <t>A1023807</t>
+  </si>
+  <si>
+    <t>A1023808</t>
+  </si>
+  <si>
+    <t>A1023809</t>
+  </si>
+  <si>
+    <t>A1023810</t>
+  </si>
+  <si>
+    <t>A1023811</t>
+  </si>
+  <si>
+    <t>20211007-List-11552Updt</t>
+  </si>
+  <si>
+    <t>A1023801</t>
+  </si>
+  <si>
+    <t>A1023802</t>
+  </si>
+  <si>
+    <t>A1023803</t>
+  </si>
+  <si>
+    <t>A1023804</t>
+  </si>
+  <si>
+    <t>A1023805</t>
+  </si>
+  <si>
+    <t>20211008-Salm-15601Updt</t>
+  </si>
+  <si>
+    <t>A1037401</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5601</t>
+  </si>
+  <si>
+    <t>A1037402</t>
+  </si>
+  <si>
+    <t>A1037403</t>
+  </si>
+  <si>
+    <t>20211008-Salm-25601Updt</t>
+  </si>
+  <si>
+    <t>A1037404</t>
+  </si>
+  <si>
+    <t>A1037405</t>
+  </si>
+  <si>
+    <t>A1037406</t>
+  </si>
+  <si>
+    <t>20211008-Salm-35601Updt</t>
+  </si>
+  <si>
+    <t>A1037407</t>
+  </si>
+  <si>
+    <t>A1037408</t>
+  </si>
+  <si>
+    <t>A1037409</t>
+  </si>
+  <si>
+    <t>20211008-Salm-45601Updt</t>
+  </si>
+  <si>
+    <t>A1037410</t>
+  </si>
+  <si>
+    <t>A1037411</t>
+  </si>
+  <si>
+    <t>A1037412</t>
+  </si>
+  <si>
+    <t>20211008-List-15601Updt</t>
+  </si>
+  <si>
+    <t>A1037801</t>
+  </si>
+  <si>
+    <t>CartridgeListeria5601</t>
+  </si>
+  <si>
+    <t>A1037802</t>
+  </si>
+  <si>
+    <t>A1037803</t>
+  </si>
+  <si>
+    <t>20211008-List-25601Updt</t>
+  </si>
+  <si>
+    <t>A1037804</t>
+  </si>
+  <si>
+    <t>A1037805</t>
+  </si>
+  <si>
+    <t>A1037806</t>
+  </si>
+  <si>
+    <t>20211008-List-35601Updt</t>
+  </si>
+  <si>
+    <t>A1037807</t>
+  </si>
+  <si>
+    <t>A1037808</t>
+  </si>
+  <si>
+    <t>A1037809</t>
+  </si>
+  <si>
+    <t>20211008-List-45601Updt</t>
+  </si>
+  <si>
+    <t>A1037810</t>
+  </si>
+  <si>
+    <t>A1037811</t>
+  </si>
+  <si>
+    <t>A1037812</t>
+  </si>
+  <si>
+    <t>20211008-Cocci-15601Updt</t>
+  </si>
+  <si>
+    <t>A1038401</t>
+  </si>
+  <si>
+    <t>TestCartridge5601</t>
+  </si>
+  <si>
+    <t>A1038402</t>
+  </si>
+  <si>
+    <t>A1038403</t>
+  </si>
+  <si>
+    <t>20211008-Cocci-25601Updt</t>
+  </si>
+  <si>
+    <t>A1038404</t>
+  </si>
+  <si>
+    <t>A1038405</t>
+  </si>
+  <si>
+    <t>A1038406</t>
+  </si>
+  <si>
+    <t>20211008-Cocci-35601Updt</t>
+  </si>
+  <si>
+    <t>A1038407</t>
+  </si>
+  <si>
+    <t>A1038408</t>
+  </si>
+  <si>
+    <t>A1038409</t>
+  </si>
+  <si>
+    <t>20211008-Cocci-45601Updt</t>
+  </si>
+  <si>
+    <t>A1038410</t>
+  </si>
+  <si>
+    <t>A1038411</t>
+  </si>
+  <si>
+    <t>A1038412</t>
   </si>
 </sst>
 </file>
@@ -2551,10 +2908,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D2" t="s">
-        <v>671</v>
+        <v>790</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2572,7 +2929,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>670</v>
+        <v>789</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -2595,10 +2952,10 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D3" t="s">
-        <v>673</v>
+        <v>792</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -2616,7 +2973,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>670</v>
+        <v>789</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -2639,10 +2996,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>793</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2660,7 +3017,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>670</v>
+        <v>789</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -2683,10 +3040,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D5" t="s">
-        <v>676</v>
+        <v>795</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -2704,7 +3061,7 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>675</v>
+        <v>794</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -2727,10 +3084,10 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D6" t="s">
-        <v>677</v>
+        <v>796</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -2748,7 +3105,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>675</v>
+        <v>794</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -2771,10 +3128,10 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D7" t="s">
-        <v>678</v>
+        <v>797</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -2792,7 +3149,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>675</v>
+        <v>794</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -2815,10 +3172,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D8" t="s">
-        <v>680</v>
+        <v>799</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -2836,7 +3193,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>679</v>
+        <v>798</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
@@ -2859,10 +3216,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D9" t="s">
-        <v>681</v>
+        <v>800</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -2880,7 +3237,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>679</v>
+        <v>798</v>
       </c>
       <c r="T9" t="s">
         <v>33</v>
@@ -2903,10 +3260,10 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D10" t="s">
-        <v>682</v>
+        <v>801</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -2924,7 +3281,7 @@
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>679</v>
+        <v>798</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -2947,10 +3304,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D11" t="s">
-        <v>684</v>
+        <v>803</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -2968,7 +3325,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>683</v>
+        <v>802</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
@@ -2991,10 +3348,10 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D12" t="s">
-        <v>685</v>
+        <v>804</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -3012,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>683</v>
+        <v>802</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -3035,10 +3392,10 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>672</v>
+        <v>791</v>
       </c>
       <c r="D13" t="s">
-        <v>686</v>
+        <v>805</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -3056,7 +3413,7 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>683</v>
+        <v>802</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7392" uniqueCount="1049">
   <si>
     <t>Result Date</t>
   </si>
@@ -2452,6 +2452,735 @@
   </si>
   <si>
     <t>A1038412</t>
+  </si>
+  <si>
+    <t>20211011-Salm-12114Updt</t>
+  </si>
+  <si>
+    <t>A0573801</t>
+  </si>
+  <si>
+    <t>CartridgeSalm2114</t>
+  </si>
+  <si>
+    <t>A0573802</t>
+  </si>
+  <si>
+    <t>20211011-Salm-32114Updt</t>
+  </si>
+  <si>
+    <t>A0573807</t>
+  </si>
+  <si>
+    <t>A0573808</t>
+  </si>
+  <si>
+    <t>A0573809</t>
+  </si>
+  <si>
+    <t>20211011-Salm-42114Updt</t>
+  </si>
+  <si>
+    <t>A0573810</t>
+  </si>
+  <si>
+    <t>A0573811</t>
+  </si>
+  <si>
+    <t>A0573812</t>
+  </si>
+  <si>
+    <t>A0573803</t>
+  </si>
+  <si>
+    <t>20211011-Salm-22114Updt</t>
+  </si>
+  <si>
+    <t>A0573804</t>
+  </si>
+  <si>
+    <t>A0573805</t>
+  </si>
+  <si>
+    <t>A0573806</t>
+  </si>
+  <si>
+    <t>20211011-Salm-12114UpdtUpdt</t>
+  </si>
+  <si>
+    <t>CartridgeListeria2114</t>
+  </si>
+  <si>
+    <t>20211011-Salm-32114UpdtUpdt</t>
+  </si>
+  <si>
+    <t>20211011-Salm-42114UpdtUpdt</t>
+  </si>
+  <si>
+    <t>20211011-Salm-22114UpdtUpdt</t>
+  </si>
+  <si>
+    <t>20211011-Cocci-12114Updt</t>
+  </si>
+  <si>
+    <t>A0574001</t>
+  </si>
+  <si>
+    <t>TestCartridge2114</t>
+  </si>
+  <si>
+    <t>A0574002</t>
+  </si>
+  <si>
+    <t>A0574003</t>
+  </si>
+  <si>
+    <t>20211011-Cocci-22114Updt</t>
+  </si>
+  <si>
+    <t>A0574004</t>
+  </si>
+  <si>
+    <t>A0574005</t>
+  </si>
+  <si>
+    <t>A0574006</t>
+  </si>
+  <si>
+    <t>20211011-Cocci-32114Updt</t>
+  </si>
+  <si>
+    <t>A0574007</t>
+  </si>
+  <si>
+    <t>A0574008</t>
+  </si>
+  <si>
+    <t>A0574009</t>
+  </si>
+  <si>
+    <t>20211011-Cocci-42114Updt</t>
+  </si>
+  <si>
+    <t>A0574010</t>
+  </si>
+  <si>
+    <t>A0574011</t>
+  </si>
+  <si>
+    <t>A0574012</t>
+  </si>
+  <si>
+    <t>20211026-Salm-15839Updt</t>
+  </si>
+  <si>
+    <t>A1096401</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5839</t>
+  </si>
+  <si>
+    <t>A1096402</t>
+  </si>
+  <si>
+    <t>A1096403</t>
+  </si>
+  <si>
+    <t>20211026-Salm-25839Updt</t>
+  </si>
+  <si>
+    <t>A1096404</t>
+  </si>
+  <si>
+    <t>A1096405</t>
+  </si>
+  <si>
+    <t>A1096406</t>
+  </si>
+  <si>
+    <t>20211026-Salm-35839Updt</t>
+  </si>
+  <si>
+    <t>A1096407</t>
+  </si>
+  <si>
+    <t>A1096408</t>
+  </si>
+  <si>
+    <t>A1096409</t>
+  </si>
+  <si>
+    <t>20211026-Salm-45839Updt</t>
+  </si>
+  <si>
+    <t>A1096410</t>
+  </si>
+  <si>
+    <t>A1096411</t>
+  </si>
+  <si>
+    <t>A1096412</t>
+  </si>
+  <si>
+    <t>20211026-List-15839Updt</t>
+  </si>
+  <si>
+    <t>A1096501</t>
+  </si>
+  <si>
+    <t>CartridgeListeria5839</t>
+  </si>
+  <si>
+    <t>A1096502</t>
+  </si>
+  <si>
+    <t>A1096503</t>
+  </si>
+  <si>
+    <t>20211026-List-25839Updt</t>
+  </si>
+  <si>
+    <t>A1096504</t>
+  </si>
+  <si>
+    <t>A1096505</t>
+  </si>
+  <si>
+    <t>A1096506</t>
+  </si>
+  <si>
+    <t>20211026-List-35839Updt</t>
+  </si>
+  <si>
+    <t>A1096507</t>
+  </si>
+  <si>
+    <t>A1096508</t>
+  </si>
+  <si>
+    <t>A1096509</t>
+  </si>
+  <si>
+    <t>20211026-List-45839Updt</t>
+  </si>
+  <si>
+    <t>A1096510</t>
+  </si>
+  <si>
+    <t>A1096511</t>
+  </si>
+  <si>
+    <t>A1096512</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-35839Updt</t>
+  </si>
+  <si>
+    <t>A1096908</t>
+  </si>
+  <si>
+    <t>TestCartridge5839</t>
+  </si>
+  <si>
+    <t>A1096909</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-45839Updt</t>
+  </si>
+  <si>
+    <t>A1096910</t>
+  </si>
+  <si>
+    <t>A1096911</t>
+  </si>
+  <si>
+    <t>A1096912</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-15839Updt</t>
+  </si>
+  <si>
+    <t>A1096901</t>
+  </si>
+  <si>
+    <t>A1096902</t>
+  </si>
+  <si>
+    <t>A1096903</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-25839Updt</t>
+  </si>
+  <si>
+    <t>A1096904</t>
+  </si>
+  <si>
+    <t>A1096905</t>
+  </si>
+  <si>
+    <t>A1096906</t>
+  </si>
+  <si>
+    <t>A1096907</t>
+  </si>
+  <si>
+    <t>20211026-Salm-12635Updt</t>
+  </si>
+  <si>
+    <t>A1097501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm2635</t>
+  </si>
+  <si>
+    <t>20211026-Salm-32635Updt</t>
+  </si>
+  <si>
+    <t>A1097507</t>
+  </si>
+  <si>
+    <t>A1097502</t>
+  </si>
+  <si>
+    <t>A1097508</t>
+  </si>
+  <si>
+    <t>A1097503</t>
+  </si>
+  <si>
+    <t>A1097509</t>
+  </si>
+  <si>
+    <t>20211026-Salm-22635Updt</t>
+  </si>
+  <si>
+    <t>A1097504</t>
+  </si>
+  <si>
+    <t>20211026-Salm-42635Updt</t>
+  </si>
+  <si>
+    <t>A1097510</t>
+  </si>
+  <si>
+    <t>A1097505</t>
+  </si>
+  <si>
+    <t>A1097511</t>
+  </si>
+  <si>
+    <t>A1097506</t>
+  </si>
+  <si>
+    <t>A1097512</t>
+  </si>
+  <si>
+    <t>20211026-List-12635Updt</t>
+  </si>
+  <si>
+    <t>A1097601</t>
+  </si>
+  <si>
+    <t>CartridgeListeria2635</t>
+  </si>
+  <si>
+    <t>A1097602</t>
+  </si>
+  <si>
+    <t>A1097603</t>
+  </si>
+  <si>
+    <t>20211026-List-22635Updt</t>
+  </si>
+  <si>
+    <t>A1097604</t>
+  </si>
+  <si>
+    <t>A1097605</t>
+  </si>
+  <si>
+    <t>A1097606</t>
+  </si>
+  <si>
+    <t>20211026-List-32635Updt</t>
+  </si>
+  <si>
+    <t>A1097607</t>
+  </si>
+  <si>
+    <t>A1097608</t>
+  </si>
+  <si>
+    <t>A1097609</t>
+  </si>
+  <si>
+    <t>20211026-List-42635Updt</t>
+  </si>
+  <si>
+    <t>A1097610</t>
+  </si>
+  <si>
+    <t>A1097611</t>
+  </si>
+  <si>
+    <t>A1097612</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-12635Updt</t>
+  </si>
+  <si>
+    <t>A1097701</t>
+  </si>
+  <si>
+    <t>TestCartridge2635</t>
+  </si>
+  <si>
+    <t>A1097702</t>
+  </si>
+  <si>
+    <t>A1097703</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-22635Updt</t>
+  </si>
+  <si>
+    <t>A1097704</t>
+  </si>
+  <si>
+    <t>A1097705</t>
+  </si>
+  <si>
+    <t>A1097706</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-32635Updt</t>
+  </si>
+  <si>
+    <t>A1097707</t>
+  </si>
+  <si>
+    <t>A1097708</t>
+  </si>
+  <si>
+    <t>A1097709</t>
+  </si>
+  <si>
+    <t>20211026-Cocci-42635Updt</t>
+  </si>
+  <si>
+    <t>A1097710</t>
+  </si>
+  <si>
+    <t>A1097711</t>
+  </si>
+  <si>
+    <t>A1097712</t>
+  </si>
+  <si>
+    <t>20211029-Salm-10107Updt</t>
+  </si>
+  <si>
+    <t>A1114501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0107</t>
+  </si>
+  <si>
+    <t>A1114502</t>
+  </si>
+  <si>
+    <t>A1114503</t>
+  </si>
+  <si>
+    <t>20211029-Salm-20107Updt</t>
+  </si>
+  <si>
+    <t>A1114504</t>
+  </si>
+  <si>
+    <t>A1114505</t>
+  </si>
+  <si>
+    <t>A1114506</t>
+  </si>
+  <si>
+    <t>20211029-Salm-30107Updt</t>
+  </si>
+  <si>
+    <t>A1114507</t>
+  </si>
+  <si>
+    <t>A1114508</t>
+  </si>
+  <si>
+    <t>A1114509</t>
+  </si>
+  <si>
+    <t>20211029-Salm-40107Updt</t>
+  </si>
+  <si>
+    <t>A1114510</t>
+  </si>
+  <si>
+    <t>A1114511</t>
+  </si>
+  <si>
+    <t>A1114512</t>
+  </si>
+  <si>
+    <t>20211029-List-10107Updt</t>
+  </si>
+  <si>
+    <t>A1114601</t>
+  </si>
+  <si>
+    <t>CartridgeListeria0107</t>
+  </si>
+  <si>
+    <t>20211029-List-30107Updt</t>
+  </si>
+  <si>
+    <t>A1114607</t>
+  </si>
+  <si>
+    <t>A1114602</t>
+  </si>
+  <si>
+    <t>A1114608</t>
+  </si>
+  <si>
+    <t>A1114603</t>
+  </si>
+  <si>
+    <t>A1114609</t>
+  </si>
+  <si>
+    <t>20211029-List-20107Updt</t>
+  </si>
+  <si>
+    <t>A1114604</t>
+  </si>
+  <si>
+    <t>20211029-List-40107Updt</t>
+  </si>
+  <si>
+    <t>A1114610</t>
+  </si>
+  <si>
+    <t>A1114605</t>
+  </si>
+  <si>
+    <t>A1114611</t>
+  </si>
+  <si>
+    <t>A1114606</t>
+  </si>
+  <si>
+    <t>A1114612</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-10107Updt</t>
+  </si>
+  <si>
+    <t>A1114901</t>
+  </si>
+  <si>
+    <t>TestCartridge0107</t>
+  </si>
+  <si>
+    <t>A1114902</t>
+  </si>
+  <si>
+    <t>A1114903</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-20107Updt</t>
+  </si>
+  <si>
+    <t>A1114904</t>
+  </si>
+  <si>
+    <t>A1114905</t>
+  </si>
+  <si>
+    <t>A1114906</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-30107Updt</t>
+  </si>
+  <si>
+    <t>A1114907</t>
+  </si>
+  <si>
+    <t>A1114908</t>
+  </si>
+  <si>
+    <t>A1114909</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-40107Updt</t>
+  </si>
+  <si>
+    <t>A1114910</t>
+  </si>
+  <si>
+    <t>A1114911</t>
+  </si>
+  <si>
+    <t>A1114912</t>
+  </si>
+  <si>
+    <t>20211029-Salm-25507Updt</t>
+  </si>
+  <si>
+    <t>A0589706</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5507</t>
+  </si>
+  <si>
+    <t>20211029-Salm-35507Updt</t>
+  </si>
+  <si>
+    <t>A0589707</t>
+  </si>
+  <si>
+    <t>A0589708</t>
+  </si>
+  <si>
+    <t>20211029-Salm-15507Updt</t>
+  </si>
+  <si>
+    <t>A0589701</t>
+  </si>
+  <si>
+    <t>A0589702</t>
+  </si>
+  <si>
+    <t>A0589703</t>
+  </si>
+  <si>
+    <t>A0589704</t>
+  </si>
+  <si>
+    <t>A0589705</t>
+  </si>
+  <si>
+    <t>A0589709</t>
+  </si>
+  <si>
+    <t>20211029-Salm-45507Updt</t>
+  </si>
+  <si>
+    <t>A0589710</t>
+  </si>
+  <si>
+    <t>A0589711</t>
+  </si>
+  <si>
+    <t>A0589712</t>
+  </si>
+  <si>
+    <t>20211029-List-15507Updt</t>
+  </si>
+  <si>
+    <t>A0589801</t>
+  </si>
+  <si>
+    <t>CartridgeListeria5507</t>
+  </si>
+  <si>
+    <t>A0589802</t>
+  </si>
+  <si>
+    <t>A0589803</t>
+  </si>
+  <si>
+    <t>20211029-List-25507Updt</t>
+  </si>
+  <si>
+    <t>A0589804</t>
+  </si>
+  <si>
+    <t>A0589805</t>
+  </si>
+  <si>
+    <t>A0589806</t>
+  </si>
+  <si>
+    <t>20211029-List-35507Updt</t>
+  </si>
+  <si>
+    <t>A0589807</t>
+  </si>
+  <si>
+    <t>A0589808</t>
+  </si>
+  <si>
+    <t>A0589809</t>
+  </si>
+  <si>
+    <t>20211029-List-45507Updt</t>
+  </si>
+  <si>
+    <t>A0589810</t>
+  </si>
+  <si>
+    <t>A0589811</t>
+  </si>
+  <si>
+    <t>A0589812</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-15507Updt</t>
+  </si>
+  <si>
+    <t>A0589901</t>
+  </si>
+  <si>
+    <t>TestCartridge5507</t>
+  </si>
+  <si>
+    <t>A0589902</t>
+  </si>
+  <si>
+    <t>A0589903</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-25507Updt</t>
+  </si>
+  <si>
+    <t>A0589904</t>
+  </si>
+  <si>
+    <t>A0589905</t>
+  </si>
+  <si>
+    <t>A0589906</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-35507Updt</t>
+  </si>
+  <si>
+    <t>A0589907</t>
+  </si>
+  <si>
+    <t>A0589908</t>
+  </si>
+  <si>
+    <t>A0589909</t>
+  </si>
+  <si>
+    <t>20211029-Cocci-45507Updt</t>
+  </si>
+  <si>
+    <t>A0589910</t>
+  </si>
+  <si>
+    <t>A0589911</t>
+  </si>
+  <si>
+    <t>A0589912</t>
   </si>
 </sst>
 </file>
@@ -2908,10 +3637,10 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D2" t="s">
-        <v>790</v>
+        <v>1033</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2929,7 +3658,7 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>789</v>
+        <v>1032</v>
       </c>
       <c r="T2" t="s">
         <v>33</v>
@@ -2952,10 +3681,10 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D3" t="s">
-        <v>792</v>
+        <v>1035</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -2973,7 +3702,7 @@
         <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>789</v>
+        <v>1032</v>
       </c>
       <c r="T3" t="s">
         <v>33</v>
@@ -2996,10 +3725,10 @@
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D4" t="s">
-        <v>793</v>
+        <v>1036</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3017,7 +3746,7 @@
         <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>789</v>
+        <v>1032</v>
       </c>
       <c r="T4" t="s">
         <v>33</v>
@@ -3040,10 +3769,10 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D5" t="s">
-        <v>795</v>
+        <v>1038</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
@@ -3061,7 +3790,7 @@
         <v>31</v>
       </c>
       <c r="R5" t="s">
-        <v>794</v>
+        <v>1037</v>
       </c>
       <c r="T5" t="s">
         <v>33</v>
@@ -3084,10 +3813,10 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D6" t="s">
-        <v>796</v>
+        <v>1039</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -3105,7 +3834,7 @@
         <v>31</v>
       </c>
       <c r="R6" t="s">
-        <v>794</v>
+        <v>1037</v>
       </c>
       <c r="T6" t="s">
         <v>33</v>
@@ -3128,10 +3857,10 @@
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D7" t="s">
-        <v>797</v>
+        <v>1040</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -3149,7 +3878,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>794</v>
+        <v>1037</v>
       </c>
       <c r="T7" t="s">
         <v>33</v>
@@ -3172,10 +3901,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D8" t="s">
-        <v>799</v>
+        <v>1042</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -3193,7 +3922,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>798</v>
+        <v>1041</v>
       </c>
       <c r="T8" t="s">
         <v>33</v>
@@ -3216,10 +3945,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D9" t="s">
-        <v>800</v>
+        <v>1043</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -3237,7 +3966,7 @@
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>798</v>
+        <v>1041</v>
       </c>
       <c r="T9" t="s">
         <v>33</v>
@@ -3260,10 +3989,10 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D10" t="s">
-        <v>801</v>
+        <v>1044</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -3281,7 +4010,7 @@
         <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>798</v>
+        <v>1041</v>
       </c>
       <c r="T10" t="s">
         <v>33</v>
@@ -3304,10 +4033,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D11" t="s">
-        <v>803</v>
+        <v>1046</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -3325,7 +4054,7 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>802</v>
+        <v>1045</v>
       </c>
       <c r="T11" t="s">
         <v>33</v>
@@ -3348,10 +4077,10 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D12" t="s">
-        <v>804</v>
+        <v>1047</v>
       </c>
       <c r="E12" t="s">
         <v>27</v>
@@ -3369,7 +4098,7 @@
         <v>31</v>
       </c>
       <c r="R12" t="s">
-        <v>802</v>
+        <v>1045</v>
       </c>
       <c r="T12" t="s">
         <v>33</v>
@@ -3392,10 +4121,10 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>791</v>
+        <v>1034</v>
       </c>
       <c r="D13" t="s">
-        <v>805</v>
+        <v>1048</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -3413,7 +4142,7 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>802</v>
+        <v>1045</v>
       </c>
       <c r="T13" t="s">
         <v>33</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="245">
   <si>
     <t>Result ID</t>
   </si>
@@ -293,6 +293,468 @@
   </si>
   <si>
     <t>A1355912</t>
+  </si>
+  <si>
+    <t>20220222-Cocci-13845Updt</t>
+  </si>
+  <si>
+    <t>A0884001</t>
+  </si>
+  <si>
+    <t>TestCartridge3845</t>
+  </si>
+  <si>
+    <t>A0884002</t>
+  </si>
+  <si>
+    <t>A0884003</t>
+  </si>
+  <si>
+    <t>A0884004</t>
+  </si>
+  <si>
+    <t>A0884005</t>
+  </si>
+  <si>
+    <t>A0884006</t>
+  </si>
+  <si>
+    <t>A0884007</t>
+  </si>
+  <si>
+    <t>A0884008</t>
+  </si>
+  <si>
+    <t>A0884009</t>
+  </si>
+  <si>
+    <t>A0884010</t>
+  </si>
+  <si>
+    <t>A0884011</t>
+  </si>
+  <si>
+    <t>A0884012</t>
+  </si>
+  <si>
+    <t>20220222-Salm-14142Updt</t>
+  </si>
+  <si>
+    <t>A0884101</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4142</t>
+  </si>
+  <si>
+    <t>A0884102</t>
+  </si>
+  <si>
+    <t>A0884103</t>
+  </si>
+  <si>
+    <t>A0884104</t>
+  </si>
+  <si>
+    <t>A0884105</t>
+  </si>
+  <si>
+    <t>A0884106</t>
+  </si>
+  <si>
+    <t>A0884107</t>
+  </si>
+  <si>
+    <t>A0884108</t>
+  </si>
+  <si>
+    <t>A0884109</t>
+  </si>
+  <si>
+    <t>A0884110</t>
+  </si>
+  <si>
+    <t>A0884111</t>
+  </si>
+  <si>
+    <t>A0884112</t>
+  </si>
+  <si>
+    <t>20220222-List-14142Updt</t>
+  </si>
+  <si>
+    <t>A0884201</t>
+  </si>
+  <si>
+    <t>CartridgeListeria4142</t>
+  </si>
+  <si>
+    <t>A0884202</t>
+  </si>
+  <si>
+    <t>A0884203</t>
+  </si>
+  <si>
+    <t>A0884204</t>
+  </si>
+  <si>
+    <t>A0884205</t>
+  </si>
+  <si>
+    <t>A0884206</t>
+  </si>
+  <si>
+    <t>A0884207</t>
+  </si>
+  <si>
+    <t>A0884208</t>
+  </si>
+  <si>
+    <t>A0884209</t>
+  </si>
+  <si>
+    <t>A0884210</t>
+  </si>
+  <si>
+    <t>A0884211</t>
+  </si>
+  <si>
+    <t>A0884212</t>
+  </si>
+  <si>
+    <t>20220304-Salm-11426Updt</t>
+  </si>
+  <si>
+    <t>A1389301</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1426</t>
+  </si>
+  <si>
+    <t>A1389302</t>
+  </si>
+  <si>
+    <t>A1389303</t>
+  </si>
+  <si>
+    <t>A1389304</t>
+  </si>
+  <si>
+    <t>A1389305</t>
+  </si>
+  <si>
+    <t>A1389306</t>
+  </si>
+  <si>
+    <t>A1389307</t>
+  </si>
+  <si>
+    <t>A1389308</t>
+  </si>
+  <si>
+    <t>A1389309</t>
+  </si>
+  <si>
+    <t>A1389310</t>
+  </si>
+  <si>
+    <t>A1389311</t>
+  </si>
+  <si>
+    <t>A1389312</t>
+  </si>
+  <si>
+    <t>20220304-Cocci-14738Updt</t>
+  </si>
+  <si>
+    <t>A1390708</t>
+  </si>
+  <si>
+    <t>TestCartridge4738</t>
+  </si>
+  <si>
+    <t>A1390709</t>
+  </si>
+  <si>
+    <t>A1390701</t>
+  </si>
+  <si>
+    <t>A1390702</t>
+  </si>
+  <si>
+    <t>A1390703</t>
+  </si>
+  <si>
+    <t>A1390704</t>
+  </si>
+  <si>
+    <t>A1390710</t>
+  </si>
+  <si>
+    <t>A1390711</t>
+  </si>
+  <si>
+    <t>A1390705</t>
+  </si>
+  <si>
+    <t>A1390706</t>
+  </si>
+  <si>
+    <t>A1390707</t>
+  </si>
+  <si>
+    <t>A1390712</t>
+  </si>
+  <si>
+    <t>20220304-Salm-14729Updt</t>
+  </si>
+  <si>
+    <t>A1392501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4729</t>
+  </si>
+  <si>
+    <t>A1392502</t>
+  </si>
+  <si>
+    <t>A1392503</t>
+  </si>
+  <si>
+    <t>A1392504</t>
+  </si>
+  <si>
+    <t>A1392505</t>
+  </si>
+  <si>
+    <t>A1392506</t>
+  </si>
+  <si>
+    <t>A1392507</t>
+  </si>
+  <si>
+    <t>A1392508</t>
+  </si>
+  <si>
+    <t>A1392509</t>
+  </si>
+  <si>
+    <t>A1392510</t>
+  </si>
+  <si>
+    <t>A1392511</t>
+  </si>
+  <si>
+    <t>A1392512</t>
+  </si>
+  <si>
+    <t>20220304-List-14729Updt</t>
+  </si>
+  <si>
+    <t>A1392707</t>
+  </si>
+  <si>
+    <t>CartridgeListeria4729</t>
+  </si>
+  <si>
+    <t>A1392708</t>
+  </si>
+  <si>
+    <t>A1392709</t>
+  </si>
+  <si>
+    <t>A1392710</t>
+  </si>
+  <si>
+    <t>A1392711</t>
+  </si>
+  <si>
+    <t>A1392712</t>
+  </si>
+  <si>
+    <t>A1392701</t>
+  </si>
+  <si>
+    <t>A1392702</t>
+  </si>
+  <si>
+    <t>A1392703</t>
+  </si>
+  <si>
+    <t>A1392704</t>
+  </si>
+  <si>
+    <t>A1392705</t>
+  </si>
+  <si>
+    <t>A1392706</t>
+  </si>
+  <si>
+    <t>20220304-Salm-13956Updt</t>
+  </si>
+  <si>
+    <t>A0921209</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3956</t>
+  </si>
+  <si>
+    <t>A0921210</t>
+  </si>
+  <si>
+    <t>A0921211</t>
+  </si>
+  <si>
+    <t>A0921212</t>
+  </si>
+  <si>
+    <t>A0921201</t>
+  </si>
+  <si>
+    <t>A0921202</t>
+  </si>
+  <si>
+    <t>A0921203</t>
+  </si>
+  <si>
+    <t>A0921204</t>
+  </si>
+  <si>
+    <t>A0921205</t>
+  </si>
+  <si>
+    <t>A0921206</t>
+  </si>
+  <si>
+    <t>A0921207</t>
+  </si>
+  <si>
+    <t>A0921208</t>
+  </si>
+  <si>
+    <t>20220304-List-13956Updt</t>
+  </si>
+  <si>
+    <t>A0921301</t>
+  </si>
+  <si>
+    <t>CartridgeListeria3956</t>
+  </si>
+  <si>
+    <t>A0921302</t>
+  </si>
+  <si>
+    <t>A0921303</t>
+  </si>
+  <si>
+    <t>A0921304</t>
+  </si>
+  <si>
+    <t>A0921305</t>
+  </si>
+  <si>
+    <t>A0921306</t>
+  </si>
+  <si>
+    <t>A0921307</t>
+  </si>
+  <si>
+    <t>A0921308</t>
+  </si>
+  <si>
+    <t>A0921309</t>
+  </si>
+  <si>
+    <t>A0921310</t>
+  </si>
+  <si>
+    <t>A0921311</t>
+  </si>
+  <si>
+    <t>A0921312</t>
+  </si>
+  <si>
+    <t>20220311-Salm-10733Updt</t>
+  </si>
+  <si>
+    <t>A0947701</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0733</t>
+  </si>
+  <si>
+    <t>A0947702</t>
+  </si>
+  <si>
+    <t>A0947703</t>
+  </si>
+  <si>
+    <t>A0947704</t>
+  </si>
+  <si>
+    <t>A0947705</t>
+  </si>
+  <si>
+    <t>A0947706</t>
+  </si>
+  <si>
+    <t>A0947707</t>
+  </si>
+  <si>
+    <t>A0947708</t>
+  </si>
+  <si>
+    <t>A0947709</t>
+  </si>
+  <si>
+    <t>A0947710</t>
+  </si>
+  <si>
+    <t>A0947711</t>
+  </si>
+  <si>
+    <t>A0947712</t>
+  </si>
+  <si>
+    <t>20220311-Cocci-10733Updt</t>
+  </si>
+  <si>
+    <t>A0948001</t>
+  </si>
+  <si>
+    <t>TestCartridge0733</t>
+  </si>
+  <si>
+    <t>A0948002</t>
+  </si>
+  <si>
+    <t>A0948003</t>
+  </si>
+  <si>
+    <t>A0948004</t>
+  </si>
+  <si>
+    <t>A0948005</t>
+  </si>
+  <si>
+    <t>A0948006</t>
+  </si>
+  <si>
+    <t>A0948007</t>
+  </si>
+  <si>
+    <t>A0948008</t>
+  </si>
+  <si>
+    <t>A0948009</t>
+  </si>
+  <si>
+    <t>A0948010</t>
+  </si>
+  <si>
+    <t>A0948011</t>
+  </si>
+  <si>
+    <t>A0948012</t>
   </si>
 </sst>
 </file>
@@ -761,7 +1223,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -773,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -818,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -835,7 +1297,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -847,7 +1309,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -892,7 +1354,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -909,7 +1371,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -921,7 +1383,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -966,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -983,7 +1445,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -995,7 +1457,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1040,7 +1502,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1057,7 +1519,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -1069,7 +1531,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1114,7 +1576,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1131,7 +1593,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -1143,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1188,7 +1650,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1205,7 +1667,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -1217,7 +1679,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1262,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1279,7 +1741,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -1291,7 +1753,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1336,7 +1798,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1353,7 +1815,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -1365,7 +1827,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1410,7 +1872,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1427,7 +1889,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -1439,7 +1901,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1484,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1501,7 +1963,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -1513,7 +1975,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1558,7 +2020,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1575,7 +2037,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -1587,7 +2049,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -1632,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5736" uniqueCount="642">
   <si>
     <t>Result ID</t>
   </si>
@@ -755,6 +755,1197 @@
   </si>
   <si>
     <t>A0948012</t>
+  </si>
+  <si>
+    <t>20220316-Salm-15449Updt</t>
+  </si>
+  <si>
+    <t>A1400701</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5449</t>
+  </si>
+  <si>
+    <t>A1400702</t>
+  </si>
+  <si>
+    <t>A1400703</t>
+  </si>
+  <si>
+    <t>A1400704</t>
+  </si>
+  <si>
+    <t>A1400705</t>
+  </si>
+  <si>
+    <t>A1400706</t>
+  </si>
+  <si>
+    <t>A1400707</t>
+  </si>
+  <si>
+    <t>A1400708</t>
+  </si>
+  <si>
+    <t>A1400709</t>
+  </si>
+  <si>
+    <t>A1400710</t>
+  </si>
+  <si>
+    <t>A1400711</t>
+  </si>
+  <si>
+    <t>A1400712</t>
+  </si>
+  <si>
+    <t>20220316-Cocci-15449Updt</t>
+  </si>
+  <si>
+    <t>A1400901</t>
+  </si>
+  <si>
+    <t>TestCartridge5449</t>
+  </si>
+  <si>
+    <t>A1400902</t>
+  </si>
+  <si>
+    <t>A1400903</t>
+  </si>
+  <si>
+    <t>A1400904</t>
+  </si>
+  <si>
+    <t>A1400905</t>
+  </si>
+  <si>
+    <t>A1400906</t>
+  </si>
+  <si>
+    <t>A1400907</t>
+  </si>
+  <si>
+    <t>A1400908</t>
+  </si>
+  <si>
+    <t>A1400909</t>
+  </si>
+  <si>
+    <t>A1400910</t>
+  </si>
+  <si>
+    <t>A1400911</t>
+  </si>
+  <si>
+    <t>A1400912</t>
+  </si>
+  <si>
+    <t>20220317-Cocci-14100Updt</t>
+  </si>
+  <si>
+    <t>A0891301</t>
+  </si>
+  <si>
+    <t>TestCartridge4100</t>
+  </si>
+  <si>
+    <t>A0891302</t>
+  </si>
+  <si>
+    <t>A0891303</t>
+  </si>
+  <si>
+    <t>A0891304</t>
+  </si>
+  <si>
+    <t>A0891305</t>
+  </si>
+  <si>
+    <t>A0891306</t>
+  </si>
+  <si>
+    <t>A0891307</t>
+  </si>
+  <si>
+    <t>A0891308</t>
+  </si>
+  <si>
+    <t>A0891309</t>
+  </si>
+  <si>
+    <t>A0891310</t>
+  </si>
+  <si>
+    <t>A0891311</t>
+  </si>
+  <si>
+    <t>A0891312</t>
+  </si>
+  <si>
+    <t>20220317-Salm-14232Updt</t>
+  </si>
+  <si>
+    <t>A0891406</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4232</t>
+  </si>
+  <si>
+    <t>A0891407</t>
+  </si>
+  <si>
+    <t>A0891408</t>
+  </si>
+  <si>
+    <t>A0891409</t>
+  </si>
+  <si>
+    <t>A0891410</t>
+  </si>
+  <si>
+    <t>A0891411</t>
+  </si>
+  <si>
+    <t>A0891412</t>
+  </si>
+  <si>
+    <t>A0891401</t>
+  </si>
+  <si>
+    <t>A0891402</t>
+  </si>
+  <si>
+    <t>A0891403</t>
+  </si>
+  <si>
+    <t>A0891404</t>
+  </si>
+  <si>
+    <t>A0891405</t>
+  </si>
+  <si>
+    <t>20220318-Salm-13710Updt</t>
+  </si>
+  <si>
+    <t>A0896501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3710</t>
+  </si>
+  <si>
+    <t>A0896502</t>
+  </si>
+  <si>
+    <t>A0896503</t>
+  </si>
+  <si>
+    <t>A0896504</t>
+  </si>
+  <si>
+    <t>A0896505</t>
+  </si>
+  <si>
+    <t>A0896506</t>
+  </si>
+  <si>
+    <t>A0896507</t>
+  </si>
+  <si>
+    <t>A0896508</t>
+  </si>
+  <si>
+    <t>A0896509</t>
+  </si>
+  <si>
+    <t>A0896510</t>
+  </si>
+  <si>
+    <t>A0896511</t>
+  </si>
+  <si>
+    <t>A0896512</t>
+  </si>
+  <si>
+    <t>20220318-List-13710Updt</t>
+  </si>
+  <si>
+    <t>A0896601</t>
+  </si>
+  <si>
+    <t>CartridgeListeria3710</t>
+  </si>
+  <si>
+    <t>A0896602</t>
+  </si>
+  <si>
+    <t>A0896603</t>
+  </si>
+  <si>
+    <t>A0896604</t>
+  </si>
+  <si>
+    <t>A0896605</t>
+  </si>
+  <si>
+    <t>A0896606</t>
+  </si>
+  <si>
+    <t>A0896607</t>
+  </si>
+  <si>
+    <t>A0896608</t>
+  </si>
+  <si>
+    <t>A0896609</t>
+  </si>
+  <si>
+    <t>A0896610</t>
+  </si>
+  <si>
+    <t>A0896611</t>
+  </si>
+  <si>
+    <t>A0896612</t>
+  </si>
+  <si>
+    <t>20220325-Salm-12457Updt</t>
+  </si>
+  <si>
+    <t>A1410907</t>
+  </si>
+  <si>
+    <t>CartridgeSalm2457</t>
+  </si>
+  <si>
+    <t>A1410908</t>
+  </si>
+  <si>
+    <t>A1410909</t>
+  </si>
+  <si>
+    <t>A1410910</t>
+  </si>
+  <si>
+    <t>A1410911</t>
+  </si>
+  <si>
+    <t>A1410912</t>
+  </si>
+  <si>
+    <t>A1410901</t>
+  </si>
+  <si>
+    <t>A1410902</t>
+  </si>
+  <si>
+    <t>A1410903</t>
+  </si>
+  <si>
+    <t>A1410904</t>
+  </si>
+  <si>
+    <t>A1410905</t>
+  </si>
+  <si>
+    <t>A1410906</t>
+  </si>
+  <si>
+    <t>20220329-Cocci-10950Updt</t>
+  </si>
+  <si>
+    <t>A1413101</t>
+  </si>
+  <si>
+    <t>TestCartridge0950</t>
+  </si>
+  <si>
+    <t>A1413102</t>
+  </si>
+  <si>
+    <t>A1413103</t>
+  </si>
+  <si>
+    <t>A1413104</t>
+  </si>
+  <si>
+    <t>A1413105</t>
+  </si>
+  <si>
+    <t>A1413106</t>
+  </si>
+  <si>
+    <t>A1413107</t>
+  </si>
+  <si>
+    <t>A1413108</t>
+  </si>
+  <si>
+    <t>A1413109</t>
+  </si>
+  <si>
+    <t>A1413110</t>
+  </si>
+  <si>
+    <t>A1413111</t>
+  </si>
+  <si>
+    <t>A1413112</t>
+  </si>
+  <si>
+    <t>20220329-Cocci-11516Updt</t>
+  </si>
+  <si>
+    <t>A1413301</t>
+  </si>
+  <si>
+    <t>TestCartridge1516</t>
+  </si>
+  <si>
+    <t>A1413302</t>
+  </si>
+  <si>
+    <t>A1413303</t>
+  </si>
+  <si>
+    <t>A1413304</t>
+  </si>
+  <si>
+    <t>A1413305</t>
+  </si>
+  <si>
+    <t>A1413306</t>
+  </si>
+  <si>
+    <t>A1413307</t>
+  </si>
+  <si>
+    <t>A1413308</t>
+  </si>
+  <si>
+    <t>A1413309</t>
+  </si>
+  <si>
+    <t>A1413310</t>
+  </si>
+  <si>
+    <t>A1413311</t>
+  </si>
+  <si>
+    <t>A1413312</t>
+  </si>
+  <si>
+    <t>20220329-Cocci-12057Updt</t>
+  </si>
+  <si>
+    <t>A1413601</t>
+  </si>
+  <si>
+    <t>TestCartridge2057</t>
+  </si>
+  <si>
+    <t>A1413602</t>
+  </si>
+  <si>
+    <t>A1413603</t>
+  </si>
+  <si>
+    <t>A1413604</t>
+  </si>
+  <si>
+    <t>A1413605</t>
+  </si>
+  <si>
+    <t>A1413606</t>
+  </si>
+  <si>
+    <t>A1413607</t>
+  </si>
+  <si>
+    <t>A1413608</t>
+  </si>
+  <si>
+    <t>A1413609</t>
+  </si>
+  <si>
+    <t>A1413610</t>
+  </si>
+  <si>
+    <t>A1413611</t>
+  </si>
+  <si>
+    <t>A1413612</t>
+  </si>
+  <si>
+    <t>20220401-Salm-11803Updt</t>
+  </si>
+  <si>
+    <t>A1414201</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1803</t>
+  </si>
+  <si>
+    <t>A1414202</t>
+  </si>
+  <si>
+    <t>A1414203</t>
+  </si>
+  <si>
+    <t>A1414204</t>
+  </si>
+  <si>
+    <t>A1414205</t>
+  </si>
+  <si>
+    <t>A1414206</t>
+  </si>
+  <si>
+    <t>A1414207</t>
+  </si>
+  <si>
+    <t>A1414208</t>
+  </si>
+  <si>
+    <t>A1414209</t>
+  </si>
+  <si>
+    <t>A1414210</t>
+  </si>
+  <si>
+    <t>A1414211</t>
+  </si>
+  <si>
+    <t>A1414212</t>
+  </si>
+  <si>
+    <t>20220401-Cocci-11803Updt</t>
+  </si>
+  <si>
+    <t>A1414301</t>
+  </si>
+  <si>
+    <t>TestCartridge1803</t>
+  </si>
+  <si>
+    <t>A1414302</t>
+  </si>
+  <si>
+    <t>A1414303</t>
+  </si>
+  <si>
+    <t>A1414304</t>
+  </si>
+  <si>
+    <t>A1414305</t>
+  </si>
+  <si>
+    <t>A1414306</t>
+  </si>
+  <si>
+    <t>A1414307</t>
+  </si>
+  <si>
+    <t>A1414308</t>
+  </si>
+  <si>
+    <t>A1414309</t>
+  </si>
+  <si>
+    <t>A1414310</t>
+  </si>
+  <si>
+    <t>A1414311</t>
+  </si>
+  <si>
+    <t>A1414312</t>
+  </si>
+  <si>
+    <t>20220412-Salm-15615Updt</t>
+  </si>
+  <si>
+    <t>A0902501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5615</t>
+  </si>
+  <si>
+    <t>A0902502</t>
+  </si>
+  <si>
+    <t>A0902503</t>
+  </si>
+  <si>
+    <t>A0902504</t>
+  </si>
+  <si>
+    <t>A0902505</t>
+  </si>
+  <si>
+    <t>A0902506</t>
+  </si>
+  <si>
+    <t>A0902507</t>
+  </si>
+  <si>
+    <t>A0902508</t>
+  </si>
+  <si>
+    <t>A0902509</t>
+  </si>
+  <si>
+    <t>A0902510</t>
+  </si>
+  <si>
+    <t>A0902511</t>
+  </si>
+  <si>
+    <t>A0902512</t>
+  </si>
+  <si>
+    <t>20220413-Cocci-12144Updt</t>
+  </si>
+  <si>
+    <t>A0902601</t>
+  </si>
+  <si>
+    <t>TestCartridge2144</t>
+  </si>
+  <si>
+    <t>A0902602</t>
+  </si>
+  <si>
+    <t>A0902603</t>
+  </si>
+  <si>
+    <t>A0902604</t>
+  </si>
+  <si>
+    <t>A0902605</t>
+  </si>
+  <si>
+    <t>A0902606</t>
+  </si>
+  <si>
+    <t>A0902607</t>
+  </si>
+  <si>
+    <t>A0902608</t>
+  </si>
+  <si>
+    <t>A0902609</t>
+  </si>
+  <si>
+    <t>A0902610</t>
+  </si>
+  <si>
+    <t>A0902611</t>
+  </si>
+  <si>
+    <t>A0902612</t>
+  </si>
+  <si>
+    <t>20220413-Salm-12445Updt</t>
+  </si>
+  <si>
+    <t>A0902701</t>
+  </si>
+  <si>
+    <t>CartridgeSalm2445</t>
+  </si>
+  <si>
+    <t>A0902702</t>
+  </si>
+  <si>
+    <t>A0902703</t>
+  </si>
+  <si>
+    <t>A0902704</t>
+  </si>
+  <si>
+    <t>A0902705</t>
+  </si>
+  <si>
+    <t>A0902706</t>
+  </si>
+  <si>
+    <t>A0902707</t>
+  </si>
+  <si>
+    <t>A0902708</t>
+  </si>
+  <si>
+    <t>A0902709</t>
+  </si>
+  <si>
+    <t>A0902710</t>
+  </si>
+  <si>
+    <t>A0902711</t>
+  </si>
+  <si>
+    <t>A0902712</t>
+  </si>
+  <si>
+    <t>20220413-Salm-10929Updt</t>
+  </si>
+  <si>
+    <t>A0903001</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0929</t>
+  </si>
+  <si>
+    <t>A0903002</t>
+  </si>
+  <si>
+    <t>A0903003</t>
+  </si>
+  <si>
+    <t>A0903004</t>
+  </si>
+  <si>
+    <t>A0903005</t>
+  </si>
+  <si>
+    <t>A0903006</t>
+  </si>
+  <si>
+    <t>A0903007</t>
+  </si>
+  <si>
+    <t>A0903008</t>
+  </si>
+  <si>
+    <t>A0903009</t>
+  </si>
+  <si>
+    <t>A0903010</t>
+  </si>
+  <si>
+    <t>A0903011</t>
+  </si>
+  <si>
+    <t>A0903012</t>
+  </si>
+  <si>
+    <t>20220413-Cocci-10929Updt</t>
+  </si>
+  <si>
+    <t>A0903101</t>
+  </si>
+  <si>
+    <t>TestCartridge0929</t>
+  </si>
+  <si>
+    <t>A0903102</t>
+  </si>
+  <si>
+    <t>A0903103</t>
+  </si>
+  <si>
+    <t>A0903104</t>
+  </si>
+  <si>
+    <t>A0903105</t>
+  </si>
+  <si>
+    <t>A0903106</t>
+  </si>
+  <si>
+    <t>A0903107</t>
+  </si>
+  <si>
+    <t>A0903108</t>
+  </si>
+  <si>
+    <t>A0903109</t>
+  </si>
+  <si>
+    <t>A0903110</t>
+  </si>
+  <si>
+    <t>A0903111</t>
+  </si>
+  <si>
+    <t>A0903112</t>
+  </si>
+  <si>
+    <t>20220413-Salm-10747Updt</t>
+  </si>
+  <si>
+    <t>A0903601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0747</t>
+  </si>
+  <si>
+    <t>A0903602</t>
+  </si>
+  <si>
+    <t>A0903603</t>
+  </si>
+  <si>
+    <t>A0903604</t>
+  </si>
+  <si>
+    <t>A0903605</t>
+  </si>
+  <si>
+    <t>A0903606</t>
+  </si>
+  <si>
+    <t>A0903607</t>
+  </si>
+  <si>
+    <t>A0903608</t>
+  </si>
+  <si>
+    <t>A0903609</t>
+  </si>
+  <si>
+    <t>A0903610</t>
+  </si>
+  <si>
+    <t>A0903611</t>
+  </si>
+  <si>
+    <t>A0903612</t>
+  </si>
+  <si>
+    <t>20220413-Cocci-10747Updt</t>
+  </si>
+  <si>
+    <t>A0903701</t>
+  </si>
+  <si>
+    <t>TestCartridge0747</t>
+  </si>
+  <si>
+    <t>A0903702</t>
+  </si>
+  <si>
+    <t>A0903703</t>
+  </si>
+  <si>
+    <t>A0903704</t>
+  </si>
+  <si>
+    <t>A0903705</t>
+  </si>
+  <si>
+    <t>A0903706</t>
+  </si>
+  <si>
+    <t>A0903707</t>
+  </si>
+  <si>
+    <t>A0903708</t>
+  </si>
+  <si>
+    <t>A0903709</t>
+  </si>
+  <si>
+    <t>A0903710</t>
+  </si>
+  <si>
+    <t>A0903711</t>
+  </si>
+  <si>
+    <t>A0903712</t>
+  </si>
+  <si>
+    <t>20220413-Salm-11840Updt</t>
+  </si>
+  <si>
+    <t>A0903801</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1840</t>
+  </si>
+  <si>
+    <t>A0903802</t>
+  </si>
+  <si>
+    <t>A0903803</t>
+  </si>
+  <si>
+    <t>A0903804</t>
+  </si>
+  <si>
+    <t>A0903805</t>
+  </si>
+  <si>
+    <t>A0903806</t>
+  </si>
+  <si>
+    <t>A0903807</t>
+  </si>
+  <si>
+    <t>A0903808</t>
+  </si>
+  <si>
+    <t>A0903809</t>
+  </si>
+  <si>
+    <t>A0903810</t>
+  </si>
+  <si>
+    <t>A0903811</t>
+  </si>
+  <si>
+    <t>A0903812</t>
+  </si>
+  <si>
+    <t>20220413-Cocci-11840Updt</t>
+  </si>
+  <si>
+    <t>A0903901</t>
+  </si>
+  <si>
+    <t>TestCartridge1840</t>
+  </si>
+  <si>
+    <t>A0903902</t>
+  </si>
+  <si>
+    <t>A0903903</t>
+  </si>
+  <si>
+    <t>A0903904</t>
+  </si>
+  <si>
+    <t>A0903905</t>
+  </si>
+  <si>
+    <t>A0903906</t>
+  </si>
+  <si>
+    <t>A0903907</t>
+  </si>
+  <si>
+    <t>A0903908</t>
+  </si>
+  <si>
+    <t>A0903909</t>
+  </si>
+  <si>
+    <t>A0903910</t>
+  </si>
+  <si>
+    <t>A0903911</t>
+  </si>
+  <si>
+    <t>A0903912</t>
+  </si>
+  <si>
+    <t>20220414-Salm-13825Updt</t>
+  </si>
+  <si>
+    <t>A0913901</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3825</t>
+  </si>
+  <si>
+    <t>A0913902</t>
+  </si>
+  <si>
+    <t>A0913903</t>
+  </si>
+  <si>
+    <t>A0913904</t>
+  </si>
+  <si>
+    <t>A0913905</t>
+  </si>
+  <si>
+    <t>A0913906</t>
+  </si>
+  <si>
+    <t>A0913907</t>
+  </si>
+  <si>
+    <t>A0913908</t>
+  </si>
+  <si>
+    <t>A0913909</t>
+  </si>
+  <si>
+    <t>A0913910</t>
+  </si>
+  <si>
+    <t>A0913911</t>
+  </si>
+  <si>
+    <t>A0913912</t>
+  </si>
+  <si>
+    <t>20220414-Cocci-13825Updt</t>
+  </si>
+  <si>
+    <t>A0914001</t>
+  </si>
+  <si>
+    <t>TestCartridge3825</t>
+  </si>
+  <si>
+    <t>A0914002</t>
+  </si>
+  <si>
+    <t>A0914003</t>
+  </si>
+  <si>
+    <t>A0914004</t>
+  </si>
+  <si>
+    <t>A0914005</t>
+  </si>
+  <si>
+    <t>A0914006</t>
+  </si>
+  <si>
+    <t>A0914007</t>
+  </si>
+  <si>
+    <t>A0914008</t>
+  </si>
+  <si>
+    <t>A0914009</t>
+  </si>
+  <si>
+    <t>A0914010</t>
+  </si>
+  <si>
+    <t>A0914011</t>
+  </si>
+  <si>
+    <t>A0914012</t>
+  </si>
+  <si>
+    <t>20220418-Salm-14858Updt</t>
+  </si>
+  <si>
+    <t>A1419201</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4858</t>
+  </si>
+  <si>
+    <t>A1419202</t>
+  </si>
+  <si>
+    <t>A1419203</t>
+  </si>
+  <si>
+    <t>A1419204</t>
+  </si>
+  <si>
+    <t>A1419205</t>
+  </si>
+  <si>
+    <t>A1419206</t>
+  </si>
+  <si>
+    <t>A1419207</t>
+  </si>
+  <si>
+    <t>A1419208</t>
+  </si>
+  <si>
+    <t>A1419209</t>
+  </si>
+  <si>
+    <t>A1419210</t>
+  </si>
+  <si>
+    <t>A1419211</t>
+  </si>
+  <si>
+    <t>A1419212</t>
+  </si>
+  <si>
+    <t>20220418-Cocci-14858Updt</t>
+  </si>
+  <si>
+    <t>A1419301</t>
+  </si>
+  <si>
+    <t>TestCartridge4858</t>
+  </si>
+  <si>
+    <t>A1419302</t>
+  </si>
+  <si>
+    <t>A1419303</t>
+  </si>
+  <si>
+    <t>A1419304</t>
+  </si>
+  <si>
+    <t>A1419305</t>
+  </si>
+  <si>
+    <t>A1419306</t>
+  </si>
+  <si>
+    <t>A1419307</t>
+  </si>
+  <si>
+    <t>A1419308</t>
+  </si>
+  <si>
+    <t>A1419309</t>
+  </si>
+  <si>
+    <t>A1419310</t>
+  </si>
+  <si>
+    <t>A1419311</t>
+  </si>
+  <si>
+    <t>A1419312</t>
+  </si>
+  <si>
+    <t>20220418-Salm-15934Updt</t>
+  </si>
+  <si>
+    <t>A1220101</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5934</t>
+  </si>
+  <si>
+    <t>A1220102</t>
+  </si>
+  <si>
+    <t>A1220103</t>
+  </si>
+  <si>
+    <t>A1220104</t>
+  </si>
+  <si>
+    <t>A1220105</t>
+  </si>
+  <si>
+    <t>A1220106</t>
+  </si>
+  <si>
+    <t>A1220107</t>
+  </si>
+  <si>
+    <t>A1220108</t>
+  </si>
+  <si>
+    <t>A1220109</t>
+  </si>
+  <si>
+    <t>A1220110</t>
+  </si>
+  <si>
+    <t>A1220111</t>
+  </si>
+  <si>
+    <t>A1220112</t>
+  </si>
+  <si>
+    <t>20220418-Cocci-15934Updt</t>
+  </si>
+  <si>
+    <t>A1220201</t>
+  </si>
+  <si>
+    <t>TestCartridge5934</t>
+  </si>
+  <si>
+    <t>A1220202</t>
+  </si>
+  <si>
+    <t>A1220203</t>
+  </si>
+  <si>
+    <t>A1220204</t>
+  </si>
+  <si>
+    <t>A1220205</t>
+  </si>
+  <si>
+    <t>A1220206</t>
+  </si>
+  <si>
+    <t>A1220207</t>
+  </si>
+  <si>
+    <t>A1220208</t>
+  </si>
+  <si>
+    <t>A1220209</t>
+  </si>
+  <si>
+    <t>A1220210</t>
+  </si>
+  <si>
+    <t>A1220211</t>
+  </si>
+  <si>
+    <t>A1220212</t>
+  </si>
+  <si>
+    <t>20220422-Salm-14132Updt</t>
+  </si>
+  <si>
+    <t>A0921101</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4132</t>
+  </si>
+  <si>
+    <t>A0921102</t>
+  </si>
+  <si>
+    <t>A0921103</t>
+  </si>
+  <si>
+    <t>A0921104</t>
+  </si>
+  <si>
+    <t>A0921105</t>
+  </si>
+  <si>
+    <t>A0921106</t>
+  </si>
+  <si>
+    <t>A0921107</t>
+  </si>
+  <si>
+    <t>A0921108</t>
+  </si>
+  <si>
+    <t>A0921109</t>
+  </si>
+  <si>
+    <t>A0921110</t>
+  </si>
+  <si>
+    <t>A0921111</t>
+  </si>
+  <si>
+    <t>A0921112</t>
+  </si>
+  <si>
+    <t>20220422-List-14132Updt</t>
+  </si>
+  <si>
+    <t>CartridgeListeria4132</t>
+  </si>
+  <si>
+    <t>20220422-Cocci-14132Updt</t>
+  </si>
+  <si>
+    <t>04/22/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge4132</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +2414,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>640</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -1235,7 +2426,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1280,7 +2471,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1297,7 +2488,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>640</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -1309,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1354,7 +2545,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1371,7 +2562,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>640</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -1383,7 +2574,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1428,7 +2619,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1445,7 +2636,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>640</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -1457,7 +2648,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1502,7 +2693,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1519,7 +2710,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>640</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -1531,7 +2722,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1576,7 +2767,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1593,7 +2784,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>640</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -1605,7 +2796,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1650,7 +2841,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1667,7 +2858,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>640</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -1679,7 +2870,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1724,7 +2915,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1741,7 +2932,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>640</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -1753,7 +2944,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1798,7 +2989,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1815,7 +3006,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>640</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -1827,7 +3018,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1872,7 +3063,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1889,7 +3080,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>640</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -1901,7 +3092,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1946,7 +3137,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1963,7 +3154,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>640</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -1975,7 +3166,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -2020,7 +3211,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2037,7 +3228,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>640</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -2049,7 +3240,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>639</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2094,7 +3285,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>233</v>
+        <v>641</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5736" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6504" uniqueCount="715">
   <si>
     <t>Result ID</t>
   </si>
@@ -1946,6 +1946,225 @@
   </si>
   <si>
     <t>TestCartridge4132</t>
+  </si>
+  <si>
+    <t>20220511-Salm-15914Updt</t>
+  </si>
+  <si>
+    <t>A1423601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5914</t>
+  </si>
+  <si>
+    <t>A1423602</t>
+  </si>
+  <si>
+    <t>A1423603</t>
+  </si>
+  <si>
+    <t>A1423604</t>
+  </si>
+  <si>
+    <t>A1423605</t>
+  </si>
+  <si>
+    <t>A1423606</t>
+  </si>
+  <si>
+    <t>A1423607</t>
+  </si>
+  <si>
+    <t>A1423608</t>
+  </si>
+  <si>
+    <t>A1423609</t>
+  </si>
+  <si>
+    <t>A1423610</t>
+  </si>
+  <si>
+    <t>A1423611</t>
+  </si>
+  <si>
+    <t>A1423612</t>
+  </si>
+  <si>
+    <t>20220511-List-15914Updt</t>
+  </si>
+  <si>
+    <t>A1423701</t>
+  </si>
+  <si>
+    <t>CartridgeListeria5914</t>
+  </si>
+  <si>
+    <t>A1423702</t>
+  </si>
+  <si>
+    <t>A1423703</t>
+  </si>
+  <si>
+    <t>A1423704</t>
+  </si>
+  <si>
+    <t>A1423705</t>
+  </si>
+  <si>
+    <t>A1423706</t>
+  </si>
+  <si>
+    <t>A1423707</t>
+  </si>
+  <si>
+    <t>A1423708</t>
+  </si>
+  <si>
+    <t>A1423709</t>
+  </si>
+  <si>
+    <t>A1423710</t>
+  </si>
+  <si>
+    <t>A1423711</t>
+  </si>
+  <si>
+    <t>A1423712</t>
+  </si>
+  <si>
+    <t>20220511-Cocci-15914Updt</t>
+  </si>
+  <si>
+    <t>05/11/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge5914</t>
+  </si>
+  <si>
+    <t>20220512-Salm-14707Updt</t>
+  </si>
+  <si>
+    <t>A1425701</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4707</t>
+  </si>
+  <si>
+    <t>A1425702</t>
+  </si>
+  <si>
+    <t>A1425703</t>
+  </si>
+  <si>
+    <t>A1425704</t>
+  </si>
+  <si>
+    <t>A1425705</t>
+  </si>
+  <si>
+    <t>A1425706</t>
+  </si>
+  <si>
+    <t>A1425707</t>
+  </si>
+  <si>
+    <t>A1425708</t>
+  </si>
+  <si>
+    <t>A1425709</t>
+  </si>
+  <si>
+    <t>A1425710</t>
+  </si>
+  <si>
+    <t>A1425711</t>
+  </si>
+  <si>
+    <t>A1425712</t>
+  </si>
+  <si>
+    <t>20220512-List-14707Updt</t>
+  </si>
+  <si>
+    <t>A1425801</t>
+  </si>
+  <si>
+    <t>CartridgeListeria4707</t>
+  </si>
+  <si>
+    <t>A1425802</t>
+  </si>
+  <si>
+    <t>A1425803</t>
+  </si>
+  <si>
+    <t>A1425804</t>
+  </si>
+  <si>
+    <t>A1425805</t>
+  </si>
+  <si>
+    <t>A1425806</t>
+  </si>
+  <si>
+    <t>A1425807</t>
+  </si>
+  <si>
+    <t>A1425808</t>
+  </si>
+  <si>
+    <t>A1425809</t>
+  </si>
+  <si>
+    <t>A1425810</t>
+  </si>
+  <si>
+    <t>A1425811</t>
+  </si>
+  <si>
+    <t>A1425812</t>
+  </si>
+  <si>
+    <t>20220512-Cocci-14707Updt</t>
+  </si>
+  <si>
+    <t>A1425901</t>
+  </si>
+  <si>
+    <t>TestCartridge4707</t>
+  </si>
+  <si>
+    <t>A1425902</t>
+  </si>
+  <si>
+    <t>A1425903</t>
+  </si>
+  <si>
+    <t>A1425904</t>
+  </si>
+  <si>
+    <t>A1425905</t>
+  </si>
+  <si>
+    <t>A1425906</t>
+  </si>
+  <si>
+    <t>A1425907</t>
+  </si>
+  <si>
+    <t>A1425908</t>
+  </si>
+  <si>
+    <t>A1425909</t>
+  </si>
+  <si>
+    <t>A1425910</t>
+  </si>
+  <si>
+    <t>A1425911</t>
+  </si>
+  <si>
+    <t>A1425912</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2633,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>640</v>
+        <v>702</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -2426,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2471,7 +2690,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -2488,7 +2707,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>704</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -2500,7 +2719,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2545,7 +2764,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -2562,7 +2781,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>640</v>
+        <v>705</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -2574,7 +2793,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -2619,7 +2838,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -2636,7 +2855,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>640</v>
+        <v>706</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -2648,7 +2867,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -2693,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -2710,7 +2929,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>640</v>
+        <v>707</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -2722,7 +2941,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -2767,7 +2986,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -2784,7 +3003,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>640</v>
+        <v>708</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -2796,7 +3015,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -2841,7 +3060,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -2858,7 +3077,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>640</v>
+        <v>709</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -2870,7 +3089,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -2915,7 +3134,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -2932,7 +3151,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -2944,7 +3163,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -2989,7 +3208,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -3006,7 +3225,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -3018,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -3063,7 +3282,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -3080,7 +3299,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -3092,7 +3311,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -3137,7 +3356,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -3154,7 +3373,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3166,7 +3385,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -3211,7 +3430,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -3228,7 +3447,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -3240,7 +3459,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>639</v>
+        <v>701</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -3285,7 +3504,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>641</v>
+        <v>703</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6504" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="785">
   <si>
     <t>Result ID</t>
   </si>
@@ -2165,6 +2165,216 @@
   </si>
   <si>
     <t>A1425912</t>
+  </si>
+  <si>
+    <t>20220603-Salm-13039Updt</t>
+  </si>
+  <si>
+    <t>A1432501</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3039</t>
+  </si>
+  <si>
+    <t>A1432502</t>
+  </si>
+  <si>
+    <t>A1432503</t>
+  </si>
+  <si>
+    <t>A1432504</t>
+  </si>
+  <si>
+    <t>A1432505</t>
+  </si>
+  <si>
+    <t>A1432506</t>
+  </si>
+  <si>
+    <t>A1432507</t>
+  </si>
+  <si>
+    <t>A1432508</t>
+  </si>
+  <si>
+    <t>A1432509</t>
+  </si>
+  <si>
+    <t>A1432510</t>
+  </si>
+  <si>
+    <t>A1432511</t>
+  </si>
+  <si>
+    <t>A1432512</t>
+  </si>
+  <si>
+    <t>20220603-Cocci-14238Updt</t>
+  </si>
+  <si>
+    <t>A1432701</t>
+  </si>
+  <si>
+    <t>TestCartridge4238</t>
+  </si>
+  <si>
+    <t>A1432702</t>
+  </si>
+  <si>
+    <t>A1432703</t>
+  </si>
+  <si>
+    <t>A1432704</t>
+  </si>
+  <si>
+    <t>A1432705</t>
+  </si>
+  <si>
+    <t>A1432706</t>
+  </si>
+  <si>
+    <t>A1432707</t>
+  </si>
+  <si>
+    <t>A1432708</t>
+  </si>
+  <si>
+    <t>A1432709</t>
+  </si>
+  <si>
+    <t>A1432710</t>
+  </si>
+  <si>
+    <t>A1432711</t>
+  </si>
+  <si>
+    <t>A1432712</t>
+  </si>
+  <si>
+    <t>20220603-List-11603Updt</t>
+  </si>
+  <si>
+    <t>A1433201</t>
+  </si>
+  <si>
+    <t>CartridgeListeria1603</t>
+  </si>
+  <si>
+    <t>A1433202</t>
+  </si>
+  <si>
+    <t>A1433203</t>
+  </si>
+  <si>
+    <t>A1433204</t>
+  </si>
+  <si>
+    <t>A1433205</t>
+  </si>
+  <si>
+    <t>A1433206</t>
+  </si>
+  <si>
+    <t>A1433207</t>
+  </si>
+  <si>
+    <t>A1433208</t>
+  </si>
+  <si>
+    <t>A1433209</t>
+  </si>
+  <si>
+    <t>A1433210</t>
+  </si>
+  <si>
+    <t>A1433211</t>
+  </si>
+  <si>
+    <t>A1433212</t>
+  </si>
+  <si>
+    <t>20220603-Cocci-14522Updt</t>
+  </si>
+  <si>
+    <t>A1433501</t>
+  </si>
+  <si>
+    <t>TestCartridge4522</t>
+  </si>
+  <si>
+    <t>A1433502</t>
+  </si>
+  <si>
+    <t>A1433503</t>
+  </si>
+  <si>
+    <t>A1433504</t>
+  </si>
+  <si>
+    <t>A1433505</t>
+  </si>
+  <si>
+    <t>A1433506</t>
+  </si>
+  <si>
+    <t>A1433507</t>
+  </si>
+  <si>
+    <t>A1433508</t>
+  </si>
+  <si>
+    <t>A1433509</t>
+  </si>
+  <si>
+    <t>A1433510</t>
+  </si>
+  <si>
+    <t>A1433511</t>
+  </si>
+  <si>
+    <t>A1433512</t>
+  </si>
+  <si>
+    <t>20220603-Salm-12044Updt</t>
+  </si>
+  <si>
+    <t>A1463601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm2044</t>
+  </si>
+  <si>
+    <t>A1463602</t>
+  </si>
+  <si>
+    <t>A1463603</t>
+  </si>
+  <si>
+    <t>A1463604</t>
+  </si>
+  <si>
+    <t>A1463605</t>
+  </si>
+  <si>
+    <t>A1463606</t>
+  </si>
+  <si>
+    <t>A1463607</t>
+  </si>
+  <si>
+    <t>A1463608</t>
+  </si>
+  <si>
+    <t>A1463609</t>
+  </si>
+  <si>
+    <t>A1463610</t>
+  </si>
+  <si>
+    <t>A1463611</t>
+  </si>
+  <si>
+    <t>A1463612</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2843,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -2645,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2690,7 +2900,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -2707,7 +2917,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -2719,7 +2929,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2764,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -2781,7 +2991,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -2793,7 +3003,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -2838,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -2855,7 +3065,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>706</v>
+        <v>776</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -2867,7 +3077,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -2912,7 +3122,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -2929,7 +3139,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -2941,7 +3151,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -2986,7 +3196,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -3003,7 +3213,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>778</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -3015,7 +3225,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -3060,7 +3270,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -3077,7 +3287,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -3089,7 +3299,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -3134,7 +3344,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -3151,7 +3361,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -3163,7 +3373,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -3208,7 +3418,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -3225,7 +3435,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -3237,7 +3447,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -3282,7 +3492,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -3299,7 +3509,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>712</v>
+        <v>782</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -3311,7 +3521,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -3356,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -3373,7 +3583,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3385,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -3430,7 +3640,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -3447,7 +3657,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -3459,7 +3669,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -3504,7 +3714,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7524" uniqueCount="816">
   <si>
     <t>Result ID</t>
   </si>
@@ -2375,6 +2375,99 @@
   </si>
   <si>
     <t>A1463612</t>
+  </si>
+  <si>
+    <t>20220614-Salm-15741Updt</t>
+  </si>
+  <si>
+    <t>A0957201</t>
+  </si>
+  <si>
+    <t>CartridgeSalm5741</t>
+  </si>
+  <si>
+    <t>A0957202</t>
+  </si>
+  <si>
+    <t>A0957203</t>
+  </si>
+  <si>
+    <t>A0957204</t>
+  </si>
+  <si>
+    <t>A0957205</t>
+  </si>
+  <si>
+    <t>A0957206</t>
+  </si>
+  <si>
+    <t>A0957207</t>
+  </si>
+  <si>
+    <t>A0957208</t>
+  </si>
+  <si>
+    <t>A0957209</t>
+  </si>
+  <si>
+    <t>A0957210</t>
+  </si>
+  <si>
+    <t>A0957211</t>
+  </si>
+  <si>
+    <t>A0957212</t>
+  </si>
+  <si>
+    <t>20220614-List-15741Updt</t>
+  </si>
+  <si>
+    <t>A0957306</t>
+  </si>
+  <si>
+    <t>CartridgeListeria5741</t>
+  </si>
+  <si>
+    <t>A0957307</t>
+  </si>
+  <si>
+    <t>A0957308</t>
+  </si>
+  <si>
+    <t>A0957309</t>
+  </si>
+  <si>
+    <t>A0957310</t>
+  </si>
+  <si>
+    <t>A0957311</t>
+  </si>
+  <si>
+    <t>A0957312</t>
+  </si>
+  <si>
+    <t>A0957301</t>
+  </si>
+  <si>
+    <t>A0957302</t>
+  </si>
+  <si>
+    <t>A0957303</t>
+  </si>
+  <si>
+    <t>A0957304</t>
+  </si>
+  <si>
+    <t>A0957305</t>
+  </si>
+  <si>
+    <t>20220614-Cocci-15741Updt</t>
+  </si>
+  <si>
+    <t>06/14/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge5741</t>
   </si>
 </sst>
 </file>
@@ -2843,7 +2936,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -2855,7 +2948,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -2900,7 +2993,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -2917,7 +3010,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>774</v>
+        <v>814</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -2929,7 +3022,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2974,7 +3067,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -2991,7 +3084,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -3003,7 +3096,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -3048,7 +3141,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -3065,7 +3158,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>776</v>
+        <v>814</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -3077,7 +3170,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -3122,7 +3215,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -3139,7 +3232,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>777</v>
+        <v>814</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -3151,7 +3244,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -3196,7 +3289,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -3213,7 +3306,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>778</v>
+        <v>814</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -3225,7 +3318,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -3270,7 +3363,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -3287,7 +3380,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>779</v>
+        <v>814</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -3299,7 +3392,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -3344,7 +3437,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -3361,7 +3454,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>780</v>
+        <v>814</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -3373,7 +3466,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -3418,7 +3511,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -3435,7 +3528,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>781</v>
+        <v>814</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -3447,7 +3540,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -3492,7 +3585,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -3509,7 +3602,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -3521,7 +3614,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -3566,7 +3659,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -3583,7 +3676,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
@@ -3595,7 +3688,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -3640,7 +3733,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -3657,7 +3750,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
@@ -3669,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -3714,7 +3807,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="150">
   <si>
     <t>Result ID</t>
   </si>
@@ -293,6 +293,183 @@
   </si>
   <si>
     <t>A1650712</t>
+  </si>
+  <si>
+    <t>20220725-Cocci-10513Updt</t>
+  </si>
+  <si>
+    <t>A1477801</t>
+  </si>
+  <si>
+    <t>TestCartridge0513</t>
+  </si>
+  <si>
+    <t>A1477802</t>
+  </si>
+  <si>
+    <t>A1477803</t>
+  </si>
+  <si>
+    <t>A1477804</t>
+  </si>
+  <si>
+    <t>A1477805</t>
+  </si>
+  <si>
+    <t>A1477806</t>
+  </si>
+  <si>
+    <t>A1477807</t>
+  </si>
+  <si>
+    <t>A1477808</t>
+  </si>
+  <si>
+    <t>A1477809</t>
+  </si>
+  <si>
+    <t>A1477810</t>
+  </si>
+  <si>
+    <t>A1477811</t>
+  </si>
+  <si>
+    <t>A1477812</t>
+  </si>
+  <si>
+    <t>20220725-Salm-10533Updt</t>
+  </si>
+  <si>
+    <t>A1477601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0533</t>
+  </si>
+  <si>
+    <t>A1477602</t>
+  </si>
+  <si>
+    <t>A1477603</t>
+  </si>
+  <si>
+    <t>A1477604</t>
+  </si>
+  <si>
+    <t>A1477605</t>
+  </si>
+  <si>
+    <t>A1477606</t>
+  </si>
+  <si>
+    <t>A1477607</t>
+  </si>
+  <si>
+    <t>A1477608</t>
+  </si>
+  <si>
+    <t>A1477609</t>
+  </si>
+  <si>
+    <t>A1477610</t>
+  </si>
+  <si>
+    <t>A1477611</t>
+  </si>
+  <si>
+    <t>A1477612</t>
+  </si>
+  <si>
+    <t>20220725-Salm-11830Updt</t>
+  </si>
+  <si>
+    <t>A1478401</t>
+  </si>
+  <si>
+    <t>CartridgeSalm1830</t>
+  </si>
+  <si>
+    <t>A1478402</t>
+  </si>
+  <si>
+    <t>A1478403</t>
+  </si>
+  <si>
+    <t>A1478404</t>
+  </si>
+  <si>
+    <t>A1478405</t>
+  </si>
+  <si>
+    <t>A1478406</t>
+  </si>
+  <si>
+    <t>A1478407</t>
+  </si>
+  <si>
+    <t>A1478408</t>
+  </si>
+  <si>
+    <t>A1478409</t>
+  </si>
+  <si>
+    <t>A1478410</t>
+  </si>
+  <si>
+    <t>A1478411</t>
+  </si>
+  <si>
+    <t>A1478412</t>
+  </si>
+  <si>
+    <t>20220726-Cocci-13218Updt</t>
+  </si>
+  <si>
+    <t>07/26/2022</t>
+  </si>
+  <si>
+    <t>TestCartridge3218</t>
+  </si>
+  <si>
+    <t>20220726-Salm-13821Updt</t>
+  </si>
+  <si>
+    <t>A0986301</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3821</t>
+  </si>
+  <si>
+    <t>A0986302</t>
+  </si>
+  <si>
+    <t>A0986303</t>
+  </si>
+  <si>
+    <t>A0986304</t>
+  </si>
+  <si>
+    <t>A0986305</t>
+  </si>
+  <si>
+    <t>A0986306</t>
+  </si>
+  <si>
+    <t>A0986307</t>
+  </si>
+  <si>
+    <t>A0986308</t>
+  </si>
+  <si>
+    <t>A0986309</t>
+  </si>
+  <si>
+    <t>A0986310</t>
+  </si>
+  <si>
+    <t>A0986311</t>
+  </si>
+  <si>
+    <t>A0986312</t>
   </si>
 </sst>
 </file>
@@ -767,7 +944,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -779,7 +956,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -824,7 +1001,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -841,7 +1018,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -853,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -898,7 +1075,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -915,7 +1092,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -927,7 +1104,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -972,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -989,7 +1166,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1001,7 +1178,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1046,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1063,7 +1240,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1075,7 +1252,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1120,7 +1297,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1137,7 +1314,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1149,7 +1326,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1194,7 +1371,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1211,7 +1388,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1223,7 +1400,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1268,7 +1445,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1285,7 +1462,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1297,7 +1474,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1342,7 +1519,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1359,7 +1536,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1371,7 +1548,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1416,7 +1593,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1433,7 +1610,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -1445,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1490,7 +1667,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1507,7 +1684,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1519,7 +1696,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1564,7 +1741,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1581,7 +1758,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1593,7 +1770,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -1638,7 +1815,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="178">
   <si>
     <t>Result ID</t>
   </si>
@@ -470,6 +470,90 @@
   </si>
   <si>
     <t>A0986312</t>
+  </si>
+  <si>
+    <t>20220810-Salm-10437Updt</t>
+  </si>
+  <si>
+    <t>A1770301</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0437</t>
+  </si>
+  <si>
+    <t>A1770302</t>
+  </si>
+  <si>
+    <t>A1770303</t>
+  </si>
+  <si>
+    <t>A1770304</t>
+  </si>
+  <si>
+    <t>A1770305</t>
+  </si>
+  <si>
+    <t>A1770306</t>
+  </si>
+  <si>
+    <t>A1770307</t>
+  </si>
+  <si>
+    <t>A1770308</t>
+  </si>
+  <si>
+    <t>A1770309</t>
+  </si>
+  <si>
+    <t>A1770310</t>
+  </si>
+  <si>
+    <t>A1770311</t>
+  </si>
+  <si>
+    <t>A1770312</t>
+  </si>
+  <si>
+    <t>20220810-Cocci-10430Updt</t>
+  </si>
+  <si>
+    <t>A1770401</t>
+  </si>
+  <si>
+    <t>TestCartridge0430</t>
+  </si>
+  <si>
+    <t>A1770402</t>
+  </si>
+  <si>
+    <t>A1770403</t>
+  </si>
+  <si>
+    <t>A1770404</t>
+  </si>
+  <si>
+    <t>A1770405</t>
+  </si>
+  <si>
+    <t>A1770406</t>
+  </si>
+  <si>
+    <t>A1770407</t>
+  </si>
+  <si>
+    <t>A1770408</t>
+  </si>
+  <si>
+    <t>A1770409</t>
+  </si>
+  <si>
+    <t>A1770410</t>
+  </si>
+  <si>
+    <t>A1770411</t>
+  </si>
+  <si>
+    <t>A1770412</t>
   </si>
 </sst>
 </file>
@@ -944,7 +1028,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -956,7 +1040,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1001,7 +1085,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1018,7 +1102,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1030,7 +1114,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1075,7 +1159,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1092,7 +1176,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1104,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1149,7 +1233,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1166,7 +1250,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1178,7 +1262,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1223,7 +1307,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1240,7 +1324,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1252,7 +1336,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1297,7 +1381,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1314,7 +1398,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1326,7 +1410,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1371,7 +1455,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1388,7 +1472,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1400,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1445,7 +1529,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1462,7 +1546,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1474,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1519,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1536,7 +1620,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1548,7 +1632,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1593,7 +1677,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1610,7 +1694,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -1622,7 +1706,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1667,7 +1751,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1684,7 +1768,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1696,7 +1780,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1741,7 +1825,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1758,7 +1842,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1770,7 +1854,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -1815,7 +1899,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="220">
   <si>
     <t>Result ID</t>
   </si>
@@ -554,6 +554,132 @@
   </si>
   <si>
     <t>A1770412</t>
+  </si>
+  <si>
+    <t>20220914-Cocci-12405Updt</t>
+  </si>
+  <si>
+    <t>A1526101</t>
+  </si>
+  <si>
+    <t>TestCartridge2405</t>
+  </si>
+  <si>
+    <t>A1526102</t>
+  </si>
+  <si>
+    <t>A1526103</t>
+  </si>
+  <si>
+    <t>A1526104</t>
+  </si>
+  <si>
+    <t>A1526105</t>
+  </si>
+  <si>
+    <t>A1526106</t>
+  </si>
+  <si>
+    <t>A1526107</t>
+  </si>
+  <si>
+    <t>A1526108</t>
+  </si>
+  <si>
+    <t>A1526109</t>
+  </si>
+  <si>
+    <t>A1526110</t>
+  </si>
+  <si>
+    <t>A1526111</t>
+  </si>
+  <si>
+    <t>A1526112</t>
+  </si>
+  <si>
+    <t>20220914-Salm-13447Updt</t>
+  </si>
+  <si>
+    <t>A1526201</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3447</t>
+  </si>
+  <si>
+    <t>A1526202</t>
+  </si>
+  <si>
+    <t>A1526203</t>
+  </si>
+  <si>
+    <t>A1526204</t>
+  </si>
+  <si>
+    <t>A1526205</t>
+  </si>
+  <si>
+    <t>A1526206</t>
+  </si>
+  <si>
+    <t>A1526207</t>
+  </si>
+  <si>
+    <t>A1526208</t>
+  </si>
+  <si>
+    <t>A1526209</t>
+  </si>
+  <si>
+    <t>A1526210</t>
+  </si>
+  <si>
+    <t>A1526211</t>
+  </si>
+  <si>
+    <t>A1526212</t>
+  </si>
+  <si>
+    <t>20220915-Salm-13035Updt</t>
+  </si>
+  <si>
+    <t>A1528001</t>
+  </si>
+  <si>
+    <t>CartridgeSalm3035</t>
+  </si>
+  <si>
+    <t>A1528002</t>
+  </si>
+  <si>
+    <t>A1528003</t>
+  </si>
+  <si>
+    <t>A1528004</t>
+  </si>
+  <si>
+    <t>A1528005</t>
+  </si>
+  <si>
+    <t>A1528006</t>
+  </si>
+  <si>
+    <t>A1528007</t>
+  </si>
+  <si>
+    <t>A1528008</t>
+  </si>
+  <si>
+    <t>A1528009</t>
+  </si>
+  <si>
+    <t>A1528010</t>
+  </si>
+  <si>
+    <t>A1528011</t>
+  </si>
+  <si>
+    <t>A1528012</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1154,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1040,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1085,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1102,7 +1228,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1114,7 +1240,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1159,7 +1285,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1176,7 +1302,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1188,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1233,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1250,7 +1376,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1262,7 +1388,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1307,7 +1433,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1324,7 +1450,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1336,7 +1462,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1381,7 +1507,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1398,7 +1524,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1410,7 +1536,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1455,7 +1581,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1472,7 +1598,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1484,7 +1610,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1529,7 +1655,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1546,7 +1672,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1558,7 +1684,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1603,7 +1729,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1620,7 +1746,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1632,7 +1758,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1677,7 +1803,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1694,7 +1820,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -1706,7 +1832,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1751,7 +1877,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1768,7 +1894,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1780,7 +1906,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1825,7 +1951,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1842,7 +1968,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1854,7 +1980,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -1899,7 +2025,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="248">
   <si>
     <t>Result ID</t>
   </si>
@@ -680,6 +680,90 @@
   </si>
   <si>
     <t>A1528012</t>
+  </si>
+  <si>
+    <t>20220919-Salm-10444Updt</t>
+  </si>
+  <si>
+    <t>A1892601</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0444</t>
+  </si>
+  <si>
+    <t>A1892602</t>
+  </si>
+  <si>
+    <t>A1892603</t>
+  </si>
+  <si>
+    <t>A1892604</t>
+  </si>
+  <si>
+    <t>A1892605</t>
+  </si>
+  <si>
+    <t>A1892606</t>
+  </si>
+  <si>
+    <t>A1892607</t>
+  </si>
+  <si>
+    <t>A1892608</t>
+  </si>
+  <si>
+    <t>A1892609</t>
+  </si>
+  <si>
+    <t>A1892610</t>
+  </si>
+  <si>
+    <t>A1892611</t>
+  </si>
+  <si>
+    <t>A1892612</t>
+  </si>
+  <si>
+    <t>20220919-Cocci-10427Updt</t>
+  </si>
+  <si>
+    <t>A1892501</t>
+  </si>
+  <si>
+    <t>TestCartridge0427</t>
+  </si>
+  <si>
+    <t>A1892502</t>
+  </si>
+  <si>
+    <t>A1892503</t>
+  </si>
+  <si>
+    <t>A1892504</t>
+  </si>
+  <si>
+    <t>A1892505</t>
+  </si>
+  <si>
+    <t>A1892506</t>
+  </si>
+  <si>
+    <t>A1892507</t>
+  </si>
+  <si>
+    <t>A1892508</t>
+  </si>
+  <si>
+    <t>A1892509</t>
+  </si>
+  <si>
+    <t>A1892510</t>
+  </si>
+  <si>
+    <t>A1892511</t>
+  </si>
+  <si>
+    <t>A1892512</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1238,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1166,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1211,7 +1295,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1228,7 +1312,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1240,7 +1324,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1285,7 +1369,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1302,7 +1386,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1314,7 +1398,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1359,7 +1443,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1376,7 +1460,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1388,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1433,7 +1517,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1450,7 +1534,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1462,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1507,7 +1591,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1524,7 +1608,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1536,7 +1620,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1581,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1598,7 +1682,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1610,7 +1694,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1655,7 +1739,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1672,7 +1756,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1684,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1729,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1746,7 +1830,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1758,7 +1842,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1803,7 +1887,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1820,7 +1904,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -1832,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1877,7 +1961,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1894,7 +1978,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1906,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1951,7 +2035,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -1968,7 +2052,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -1980,7 +2064,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2025,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="276">
   <si>
     <t>Result ID</t>
   </si>
@@ -764,6 +764,90 @@
   </si>
   <si>
     <t>A1892512</t>
+  </si>
+  <si>
+    <t>20220928-Cocci-14415Updt</t>
+  </si>
+  <si>
+    <t>A1012801</t>
+  </si>
+  <si>
+    <t>TestCartridge4415</t>
+  </si>
+  <si>
+    <t>A1012802</t>
+  </si>
+  <si>
+    <t>A1012803</t>
+  </si>
+  <si>
+    <t>A1012804</t>
+  </si>
+  <si>
+    <t>A1012805</t>
+  </si>
+  <si>
+    <t>A1012806</t>
+  </si>
+  <si>
+    <t>A1012807</t>
+  </si>
+  <si>
+    <t>A1012808</t>
+  </si>
+  <si>
+    <t>A1012809</t>
+  </si>
+  <si>
+    <t>A1012810</t>
+  </si>
+  <si>
+    <t>A1012811</t>
+  </si>
+  <si>
+    <t>A1012812</t>
+  </si>
+  <si>
+    <t>20220928-Salm-14911Updt</t>
+  </si>
+  <si>
+    <t>A1013606</t>
+  </si>
+  <si>
+    <t>CartridgeSalm4911</t>
+  </si>
+  <si>
+    <t>A1013607</t>
+  </si>
+  <si>
+    <t>A1013608</t>
+  </si>
+  <si>
+    <t>A1013609</t>
+  </si>
+  <si>
+    <t>A1013610</t>
+  </si>
+  <si>
+    <t>A1013611</t>
+  </si>
+  <si>
+    <t>A1013612</t>
+  </si>
+  <si>
+    <t>A1013601</t>
+  </si>
+  <si>
+    <t>A1013602</t>
+  </si>
+  <si>
+    <t>A1013603</t>
+  </si>
+  <si>
+    <t>A1013604</t>
+  </si>
+  <si>
+    <t>A1013605</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1322,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1250,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1286,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
         <v>25</v>
@@ -1295,7 +1379,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1312,7 +1396,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1324,7 +1408,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1360,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
         <v>25</v>
@@ -1369,7 +1453,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1386,7 +1470,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1398,7 +1482,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1434,7 +1518,7 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
         <v>25</v>
@@ -1443,7 +1527,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1460,7 +1544,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1472,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1508,7 +1592,7 @@
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="R5" t="s">
         <v>25</v>
@@ -1517,7 +1601,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1534,7 +1618,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1546,7 +1630,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1582,7 +1666,7 @@
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
         <v>25</v>
@@ -1591,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1608,7 +1692,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1620,7 +1704,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1656,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
         <v>25</v>
@@ -1665,7 +1749,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1682,7 +1766,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1694,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1730,7 +1814,7 @@
         <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
         <v>25</v>
@@ -1739,7 +1823,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1756,7 +1840,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1768,7 +1852,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1804,7 +1888,7 @@
         <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R9" t="s">
         <v>25</v>
@@ -1813,7 +1897,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1830,7 +1914,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1842,7 +1926,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1878,7 +1962,7 @@
         <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1887,7 +1971,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1904,7 +1988,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -1916,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -1952,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R11" t="s">
         <v>25</v>
@@ -1961,7 +2045,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -1978,7 +2062,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1990,7 +2074,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -2026,7 +2110,7 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R12" t="s">
         <v>25</v>
@@ -2035,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2052,7 +2136,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -2064,7 +2148,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2100,7 +2184,7 @@
         <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="R13" t="s">
         <v>25</v>
@@ -2109,7 +2193,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>

--- a/Excel/MetaData RunMode1.xlsx
+++ b/Excel/MetaData RunMode1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="304">
   <si>
     <t>Result ID</t>
   </si>
@@ -848,6 +848,90 @@
   </si>
   <si>
     <t>A1013605</t>
+  </si>
+  <si>
+    <t>20221012-Cocci-15935Updt</t>
+  </si>
+  <si>
+    <t>A1988201</t>
+  </si>
+  <si>
+    <t>TestCartridge5935</t>
+  </si>
+  <si>
+    <t>A1988202</t>
+  </si>
+  <si>
+    <t>A1988203</t>
+  </si>
+  <si>
+    <t>A1988204</t>
+  </si>
+  <si>
+    <t>A1988205</t>
+  </si>
+  <si>
+    <t>A1988206</t>
+  </si>
+  <si>
+    <t>A1988207</t>
+  </si>
+  <si>
+    <t>A1988208</t>
+  </si>
+  <si>
+    <t>A1988209</t>
+  </si>
+  <si>
+    <t>A1988210</t>
+  </si>
+  <si>
+    <t>A1988211</t>
+  </si>
+  <si>
+    <t>A1988212</t>
+  </si>
+  <si>
+    <t>20221012-Salm-10004Updt</t>
+  </si>
+  <si>
+    <t>A1988301</t>
+  </si>
+  <si>
+    <t>CartridgeSalm0004</t>
+  </si>
+  <si>
+    <t>A1988302</t>
+  </si>
+  <si>
+    <t>A1988303</t>
+  </si>
+  <si>
+    <t>A1988304</t>
+  </si>
+  <si>
+    <t>A1988305</t>
+  </si>
+  <si>
+    <t>A1988306</t>
+  </si>
+  <si>
+    <t>A1988307</t>
+  </si>
+  <si>
+    <t>A1988308</t>
+  </si>
+  <si>
+    <t>A1988309</t>
+  </si>
+  <si>
+    <t>A1988310</t>
+  </si>
+  <si>
+    <t>A1988311</t>
+  </si>
+  <si>
+    <t>A1988312</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1406,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -1334,7 +1418,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1370,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
         <v>25</v>
@@ -1379,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -1396,7 +1480,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
@@ -1408,7 +1492,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1444,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
         <v>25</v>
@@ -1453,7 +1537,7 @@
         <v>26</v>
       </c>
       <c r="T3" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U3" t="s">
         <v>27</v>
@@ -1470,7 +1554,7 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -1482,7 +1566,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -1518,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
         <v>25</v>
@@ -1527,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U4" t="s">
         <v>27</v>
@@ -1544,7 +1628,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1556,7 +1640,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1592,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
         <v>25</v>
@@ -1601,7 +1685,7 @@
         <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U5" t="s">
         <v>27</v>
@@ -1618,7 +1702,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
@@ -1630,7 +1714,7 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -1666,7 +1750,7 @@
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
         <v>25</v>
@@ -1675,7 +1759,7 @@
         <v>26</v>
       </c>
       <c r="T6" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U6" t="s">
         <v>27</v>
@@ -1692,7 +1776,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1704,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -1740,7 +1824,7 @@
         <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R7" t="s">
         <v>25</v>
@@ -1749,7 +1833,7 @@
         <v>26</v>
       </c>
       <c r="T7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U7" t="s">
         <v>27</v>
@@ -1766,7 +1850,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1778,7 +1862,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -1814,7 +1898,7 @@
         <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R8" t="s">
         <v>25</v>
@@ -1823,7 +1907,7 @@
         <v>26</v>
       </c>
       <c r="T8" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U8" t="s">
         <v>27</v>
@@ -1840,7 +1924,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1852,7 +1936,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
@@ -1888,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
         <v>25</v>
@@ -1897,7 +1981,7 @@
         <v>26</v>
       </c>
       <c r="T9" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U9" t="s">
         <v>27</v>
@@ -1914,7 +1998,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -1926,7 +2010,7 @@
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -1962,7 +2046,7 @@
         <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R10" t="s">
         <v>25</v>
@@ -1971,7 +2055,7 @@
         <v>26</v>
       </c>
       <c r="T10" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U10" t="s">
         <v>27</v>
@@ -1988,7 +2072,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -2000,7 +2084,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -2036,7 +2120,7 @@
         <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
         <v>25</v>
@@ -2045,7 +2129,7 @@
         <v>26</v>
       </c>
       <c r="T11" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U11" t="s">
         <v>27</v>
@@ -2062,7 +2146,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -2074,7 +2158,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -2110,7 +2194,7 @@
         <v>24</v>
       </c>
       <c r="Q12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
         <v>25</v>
@@ -2119,7 +2203,7 @@
         <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U12" t="s">
         <v>27</v>
@@ -2136,7 +2220,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>46</v>
@@ -2148,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -2184,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
         <v>25</v>
@@ -2193,7 +2277,7 @@
         <v>26</v>
       </c>
       <c r="T13" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="U13" t="s">
         <v>27</v>
